--- a/data/hotels_by_city/Denver/Denver_shard_239.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_239.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d83044-Reviews-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Rodeway-Inn-Suites.h4271.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1227 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r587465907-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>83044</t>
+  </si>
+  <si>
+    <t>587465907</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Hopefully never have to go back there</t>
+  </si>
+  <si>
+    <t>We stayed in the hotel because a family member was staying there and we stayed there also since we live in Kansas. We booked 2 rooms for 2 nights and the prices were really high. Once we got to the room the walls were really dirty,the bathroom sink was broken, and it was just terrible. The other room was the same but not with so many difficulties. The nrxt time we went there we asked them if they were going to clean our rooms anytime soon becuase we had been staying there for 4 days and they told us to do it ourselves. Kind of ridcuolus if you ask me. Never staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed in the hotel because a family member was staying there and we stayed there also since we live in Kansas. We booked 2 rooms for 2 nights and the prices were really high. Once we got to the room the walls were really dirty,the bathroom sink was broken, and it was just terrible. The other room was the same but not with so many difficulties. The nrxt time we went there we asked them if they were going to clean our rooms anytime soon becuase we had been staying there for 4 days and they told us to do it ourselves. Kind of ridcuolus if you ask me. Never staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r577389964-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577389964</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>They Should Pay Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awful place. First room did not have lights, toilet did not flush, and what was that deafening noise!!! Second room did not have a phone. Two small inadequate towels, curtains were ripped and the door to the parking lot did not open —potentially a fire trap. Arrived late left early. All this for $100???!! I want a refund. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r569003654-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>569003654</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Avoid This Place!!!!</t>
+  </si>
+  <si>
+    <t>The rooms were straight out of the movie SAW. Burns in the upholstery, poor lighting, and scum and mildew in the bathroom. The house keeping stole my suit jacket, and when I confronted the hotel about it, they claimed that there was nothing they could do. Filthy rooms, apathetic staff, and shady characters hanging around. Spend a little more for a decent hotel, or do Airbnb.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r515534753-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>515534753</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>This place is straight out of a horror movie; just pure misery. I don't even know where to begin. In the parking lot we found a bullet, that was the first bad omen. The whole building smelled musty and gross and our room smelled like smoke, despite being non-smoking. Our bathroom door had a bash in it, presumably from being punched or kicked. The bathroom floor was dirty and the shower/tub combo was disgusting. Moldy tile, dirty shower curtain, soggy matt on the floor of the tub. I even skipped taking a shower the next morning, and I hate not showering! The decor in the hallways and room were dated, dirty, old. There were a few redeeming qualities that allowed me to survive 1 night, instead of the 3 we originally intended (we got a full refund). The bed was big and comfortable and seemed clean. The a/c worked well. The tv and mini fridge were fine. The toilet and bathroom sink area were fine. If you are low maintenance, like VERY low maintenance, and/or you just need a place to do some drugs or have sex, this motel would be fine for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This place is straight out of a horror movie; just pure misery. I don't even know where to begin. In the parking lot we found a bullet, that was the first bad omen. The whole building smelled musty and gross and our room smelled like smoke, despite being non-smoking. Our bathroom door had a bash in it, presumably from being punched or kicked. The bathroom floor was dirty and the shower/tub combo was disgusting. Moldy tile, dirty shower curtain, soggy matt on the floor of the tub. I even skipped taking a shower the next morning, and I hate not showering! The decor in the hallways and room were dated, dirty, old. There were a few redeeming qualities that allowed me to survive 1 night, instead of the 3 we originally intended (we got a full refund). The bed was big and comfortable and seemed clean. The a/c worked well. The tv and mini fridge were fine. The toilet and bathroom sink area were fine. If you are low maintenance, like VERY low maintenance, and/or you just need a place to do some drugs or have sex, this motel would be fine for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r504058787-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>504058787</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Biggest Mistake!!!</t>
+  </si>
+  <si>
+    <t>The worst you could possibly find. Period. We should have listened to the other reviews. We thought we would just rough it but the smell should have been a sign to leave. Super sketchy location, sketchy room with mold and unknown stains and splatters on the walls, garbage under and around the bed...the biggest traveling mistake we've ever made.  We left this morning and tonight our clothes and bags still smell like the awful stench of the hotel.  Trust me, run.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r448586277-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>448586277</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>The worst of the worst.</t>
+  </si>
+  <si>
+    <t>If you're looking for the absolute worst motel experience possible, look no further than Traveler Inn on Federal. The facility is disgusting, with stains and unpleasant smells everywhere. No elevators. Soda machines from the 80s that were predictably out of order. Random trash outside in the grass. In our room, the main light switch didn't work. Cigarette smell even though it was a non smoking room. The bathroom door didn't close. The lamp shade was tattered and stained. Something with a dozen screws had been pulled out of the wall and never filled or repainted. Mold in the shower and behind the toilet. Stains and rust in the sink. I could go on, but I'm literally gagging remembering it all. Take a look at my photos for a good time. This is by far the dirtiest, sketchiest motel I have ever stayed in. You've been warned.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>If you're looking for the absolute worst motel experience possible, look no further than Traveler Inn on Federal. The facility is disgusting, with stains and unpleasant smells everywhere. No elevators. Soda machines from the 80s that were predictably out of order. Random trash outside in the grass. In our room, the main light switch didn't work. Cigarette smell even though it was a non smoking room. The bathroom door didn't close. The lamp shade was tattered and stained. Something with a dozen screws had been pulled out of the wall and never filled or repainted. Mold in the shower and behind the toilet. Stains and rust in the sink. I could go on, but I'm literally gagging remembering it all. Take a look at my photos for a good time. This is by far the dirtiest, sketchiest motel I have ever stayed in. You've been warned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r416667318-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>416667318</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Oh my god.</t>
+  </si>
+  <si>
+    <t>Ok, yes it is cheap and close(ish) to downtown but seriously this is a rough place to stay. I kept telling my friends it must have been kool aid and not blood on the lamp shades and carpet. There was a mysterious hole in one of the walls, mold in the shows, stains on the sheet. You get the idea. There was a strange woman (ghost? Maybe? Haha probably not) that was combing her hair in front of a mirror in one of the hallways and followed my friends to our room.  If you do stay here make sure to use the buddy system. It's the type of place you wouldn't want to get separated in in a horror movie.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Ok, yes it is cheap and close(ish) to downtown but seriously this is a rough place to stay. I kept telling my friends it must have been kool aid and not blood on the lamp shades and carpet. There was a mysterious hole in one of the walls, mold in the shows, stains on the sheet. You get the idea. There was a strange woman (ghost? Maybe? Haha probably not) that was combing her hair in front of a mirror in one of the hallways and followed my friends to our room.  If you do stay here make sure to use the buddy system. It's the type of place you wouldn't want to get separated in in a horror movie.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r411645186-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>411645186</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Just the smell alone was disgusting</t>
+  </si>
+  <si>
+    <t>Dreadful place! Do NOT stay here! Photos not accurate at all. We booked for 1 night via the app 'hotelsbyme'. We've been staying in cheap motels all throughout our road trip and this was the most expensive and yet the most disgusting and we are not fussy. The state of the reception area should have been a warning sign but on entering the 'block' the most rancid smell hit us. The smell worsens in the room. It felt damp and in dire, dire need or urgent renovation. It's right next to a bar so there was noise all night long. We stuck it out as it was non refundable and after wasting $89 we put it down to a learning experience, but sadly it was not a fun one.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Dreadful place! Do NOT stay here! Photos not accurate at all. We booked for 1 night via the app 'hotelsbyme'. We've been staying in cheap motels all throughout our road trip and this was the most expensive and yet the most disgusting and we are not fussy. The state of the reception area should have been a warning sign but on entering the 'block' the most rancid smell hit us. The smell worsens in the room. It felt damp and in dire, dire need or urgent renovation. It's right next to a bar so there was noise all night long. We stuck it out as it was non refundable and after wasting $89 we put it down to a learning experience, but sadly it was not a fun one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r396048398-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>396048398</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Sucked that pool wasn't working but nice hotel for the price and has nice restraunts in walking distance. Had a nice little balcony and nice size room with 2 queens kids loved running around.  Good freeway access</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r317206661-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>317206661</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>The Dump</t>
+  </si>
+  <si>
+    <t>This hotel doesn't even deserve 1 star. We were late in booking and not familiar with the area, we booked on line hoping it would be OK for one night. When we arrived, it took almost 45 minutes to get checked in. We were traveling with friends and had booked two rooms but first the manager said there is only one room booked. Later she found booking for other room. The carpet thru out the hotel was FILTHY. You can't even walk without shoes on that filthy carpet. They said FREE WIFI. What actually was that you connect to any strong signal available. The hotel didn't have its own wifi. Our room was supposed to be smoke free. But you can smell smoke all over. We used our own towels to cover pillows. Not sure if the sheets were clean. And yes, the AC was so noisy, we had to turn it off! We tolerated it because we were there for only one night and we really didn't have any other option at late night. The dining area was dirty and b'fast was few Danishes on a tray, lousy coffee...etc. I would advice 'Run away from this place fast.....'MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This hotel doesn't even deserve 1 star. We were late in booking and not familiar with the area, we booked on line hoping it would be OK for one night. When we arrived, it took almost 45 minutes to get checked in. We were traveling with friends and had booked two rooms but first the manager said there is only one room booked. Later she found booking for other room. The carpet thru out the hotel was FILTHY. You can't even walk without shoes on that filthy carpet. They said FREE WIFI. What actually was that you connect to any strong signal available. The hotel didn't have its own wifi. Our room was supposed to be smoke free. But you can smell smoke all over. We used our own towels to cover pillows. Not sure if the sheets were clean. And yes, the AC was so noisy, we had to turn it off! We tolerated it because we were there for only one night and we really didn't have any other option at late night. The dining area was dirty and b'fast was few Danishes on a tray, lousy coffee...etc. I would advice 'Run away from this place fast.....'More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r299294968-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>299294968</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Stay wqay</t>
+  </si>
+  <si>
+    <t>My husband stayed her for a convention he was attending, we did read some reviews, however thought we would give it a go  BIG MISTAKE, The pool they show on line has been closed for 10 years.  It was just a te3rrtibler experience all arounde.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r295334460-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>295334460</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junkies, Crack Heads, &amp; Gang Bangers </t>
+  </si>
+  <si>
+    <t>The most nasty hotel I ever stood in full of junkies Crack heads and gang bangers noise all night by unattended kids it shows a pic of a nice pool and nice rooms all false the pool is full of weeds and dirty syringes no water the court yard had weeds growing 3 feet tall they had furniture in the parking lot parking spots and the cops were there at least 3 times a day and once for a child locked in the car in 90° temperature if u are a decent working class looking for a decent place do not use the traveler inn Denver it's over run by junkies and gang bangers MoreShow less</t>
+  </si>
+  <si>
+    <t>The most nasty hotel I ever stood in full of junkies Crack heads and gang bangers noise all night by unattended kids it shows a pic of a nice pool and nice rooms all false the pool is full of weeds and dirty syringes no water the court yard had weeds growing 3 feet tall they had furniture in the parking lot parking spots and the cops were there at least 3 times a day and once for a child locked in the car in 90° temperature if u are a decent working class looking for a decent place do not use the traveler inn Denver it's over run by junkies and gang bangers More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r287860124-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>287860124</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Late Arrival</t>
+  </si>
+  <si>
+    <t>After traveling 70 miles looking for a room we finally found a vacant.  Really over priced for the quality of hotel.  But it was a place to get some z's and take a shower.The hotel was not well maintained although it looked like they were doing some updates.  Hopefully!!!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r269416387-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>269416387</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>The Mile High City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed for 5 nights.  Very pleasant stay, older buildings, but clean and comfortable.Mexican restaurant next door with good food.  Other food also close by.  We would recommend this hotel to anyone and definitely be staying again.  </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r266298392-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>266298392</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Not worth what paid</t>
+  </si>
+  <si>
+    <t>After my friend was told that a 2 king sized beds in a room would be available for us (at 4 in the morning) for $63 through Expedia, we thought what a great deal! After the hotel clerk at the front office said that Expedia needed to fax him information and then there was a problem with the fax, I was exhausted and decided to pay for the room. Not only were we misinformed about the room (it was 2 FULL sized beds) and the price the clerk told my friend-he was told $78-and i was CHARGED $84 (plus tax total $94.67). I was disappointed that there was no breakfast snacks in the morning much less even coffee! Another set of friends got a room there too-we were all tired-and they had no electricity in half of their room and Howard Johnson materials throughout the room. When my friends called the toll free line, they said they didn't have a hotel where we were located at. Bottom line, if you have cash to burn and waste and are dead tired, then go ahead and waste it here. Poor customer service, shady managerial skills and just bad over all.MoreShow less</t>
+  </si>
+  <si>
+    <t>After my friend was told that a 2 king sized beds in a room would be available for us (at 4 in the morning) for $63 through Expedia, we thought what a great deal! After the hotel clerk at the front office said that Expedia needed to fax him information and then there was a problem with the fax, I was exhausted and decided to pay for the room. Not only were we misinformed about the room (it was 2 FULL sized beds) and the price the clerk told my friend-he was told $78-and i was CHARGED $84 (plus tax total $94.67). I was disappointed that there was no breakfast snacks in the morning much less even coffee! Another set of friends got a room there too-we were all tired-and they had no electricity in half of their room and Howard Johnson materials throughout the room. When my friends called the toll free line, they said they didn't have a hotel where we were located at. Bottom line, if you have cash to burn and waste and are dead tired, then go ahead and waste it here. Poor customer service, shady managerial skills and just bad over all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r235889931-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>235889931</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Your Review      The hotel was a good value. We did have...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Review      The hotel was a good value. We did have cobwebs on the ceiling, but the bathroom was clean. There was rarely coffee available in the morning and we didn't have a coffee maker in our room. We bought coffee at the gas station next door. Everyone who worked at the hotel was friendly and professional.  For what we paid it was a great value! </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r233381435-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>233381435</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>This place is a stinking dump!</t>
+  </si>
+  <si>
+    <t>I will never stay at another HoJo as long as I live. This place was expensive relatve to other budget motels and breakfast was a joke, the room stank of mildew, lamp was broken, wifi didn't work and the drains were very slow. This place should be condemned. If ever we needed a shower afterleaving a place, this is it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r233363613-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>233363613</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r229304740-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229304740</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Time to renew or tear it down.</t>
+  </si>
+  <si>
+    <t>Folks, this is a really good central location in Denver and the folks working at the hotel seem to try really hard.  Unfortunately, whoever owns it should be chastised for bringing shame to the Howard Johnson brand.  If the maids can work hard cleaning and the front desk people can be friendly, the least the owner could do is hire a maintenance engineer or 4 to fix all the problems.  I do not want to ancient furniture that is well over 20 years old and looked like crap when it was new.  I do not want to see holes in the tub and missing grout   throughout the bathroom.  I would like some of the lights to work and I darn well do want the promised Wi Fi service.  There were multiple guests discussing this problem. Howard Johnson management, are you listening?  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Folks, this is a really good central location in Denver and the folks working at the hotel seem to try really hard.  Unfortunately, whoever owns it should be chastised for bringing shame to the Howard Johnson brand.  If the maids can work hard cleaning and the front desk people can be friendly, the least the owner could do is hire a maintenance engineer or 4 to fix all the problems.  I do not want to ancient furniture that is well over 20 years old and looked like crap when it was new.  I do not want to see holes in the tub and missing grout   throughout the bathroom.  I would like some of the lights to work and I darn well do want the promised Wi Fi service.  There were multiple guests discussing this problem. Howard Johnson management, are you listening?  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r229118310-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229118310</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>no service</t>
+  </si>
+  <si>
+    <t>No microwave in rooms so i went to use the microwave in the lobby about 3 am the door was locked i waited for 45 mins still no one my food ended up getting ruined because i couldnt heat it up had to go to mcdonalds... next morning went to eat breakfast and no coffee made had to wait for more waffle mix you will starve at this place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r228979355-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>228979355</t>
+  </si>
+  <si>
+    <t>We booked this trip and HJ cancelled our reservation</t>
+  </si>
+  <si>
+    <t>I had booked this trip for my co worker. He came into town late, and needed a place to stay for 3 days. I booked this hotel stay three days in advance. When he showed up to the hotel, they told him there was no reservation. I found out the next day. and called the reservation line with my confirmation number, and I was told it had been cancelled. We had no warning of this, they could not tell me who cancelled the reservation, and our employee was without a room for the night. We are VERY unimpressed with Wyndam and Howard Johnson, and will do everything we can to make sure no one uses this company, or stays at this disgusting hotel. Maybe things would not mess up, if you kept customer service in America, with Americans. People speaking clear and concise English. We are still quite peeved that no one was able to tell us who cancelled this reservation, and why? We will never use this brand again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had booked this trip for my co worker. He came into town late, and needed a place to stay for 3 days. I booked this hotel stay three days in advance. When he showed up to the hotel, they told him there was no reservation. I found out the next day. and called the reservation line with my confirmation number, and I was told it had been cancelled. We had no warning of this, they could not tell me who cancelled the reservation, and our employee was without a room for the night. We are VERY unimpressed with Wyndam and Howard Johnson, and will do everything we can to make sure no one uses this company, or stays at this disgusting hotel. Maybe things would not mess up, if you kept customer service in America, with Americans. People speaking clear and concise English. We are still quite peeved that no one was able to tell us who cancelled this reservation, and why? We will never use this brand again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r225584399-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>225584399</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r225370859-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>225370859</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r224692188-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>224692188</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>A reasonable place to stay</t>
+  </si>
+  <si>
+    <t>This hotel is located at exit 272 on Federal Blvd and just off of I-70 so access is very easy and there is plenty of parking.  If you stop at a gas station or a rest area, you should be able to get a book of coupons which has this hotel at $50.  The hallway was a little rough, but room was good.  King size bed, ref, large TV and desk with good WiFi signal.  Breakfast was okay, but the day I was there they allowed a male guest to be in there without his shirt which was not very appetizing.  There are many restaurants within walking distance.  For me the best thing about staying here was that about 2 blocks behind the hotel there is a nice park and lake with a walking path around it.  A great place to hike after a day of driving and if traveling with kids there is a nice playground.  This alone makes this a great place to stay.  I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is located at exit 272 on Federal Blvd and just off of I-70 so access is very easy and there is plenty of parking.  If you stop at a gas station or a rest area, you should be able to get a book of coupons which has this hotel at $50.  The hallway was a little rough, but room was good.  King size bed, ref, large TV and desk with good WiFi signal.  Breakfast was okay, but the day I was there they allowed a male guest to be in there without his shirt which was not very appetizing.  There are many restaurants within walking distance.  For me the best thing about staying here was that about 2 blocks behind the hotel there is a nice park and lake with a walking path around it.  A great place to hike after a day of driving and if traveling with kids there is a nice playground.  This alone makes this a great place to stay.  I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r221758059-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>221758059</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>The worst decision I made in 25 yrs of travelling...</t>
+  </si>
+  <si>
+    <t>I travel frequently both for business and for pleasure. I have stayed in third world countries and very meager accommodations. This hotel was probably worth about $30 per night and I paid about $100. The hotel was totally misrepresented in the pictures. It was in total disrepair. Walls were poorly plastered. Light switch panels were not working. The carpets were dirty. There were lots of insects, all our sheets had holes in it. The grass on the lawn was overgrown. The employees were nice but not very professional.When I complained to Wyndham Corporate their response was "write a review on trip advisor". Wyndham have some pride. If your name is associated with the property, take some responsibility for the poor state of this hotel. From the other reviews, it looks like this hotel has had some problems for awhile.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel frequently both for business and for pleasure. I have stayed in third world countries and very meager accommodations. This hotel was probably worth about $30 per night and I paid about $100. The hotel was totally misrepresented in the pictures. It was in total disrepair. Walls were poorly plastered. Light switch panels were not working. The carpets were dirty. There were lots of insects, all our sheets had holes in it. The grass on the lawn was overgrown. The employees were nice but not very professional.When I complained to Wyndham Corporate their response was "write a review on trip advisor". Wyndham have some pride. If your name is associated with the property, take some responsibility for the poor state of this hotel. From the other reviews, it looks like this hotel has had some problems for awhile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r220753728-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>220753728</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r219324507-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>219324507</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We didn't even stay a night at this hotel. The lights didn't work, the beds weren't the right size, and The shower didn't work. I went to the front desk to talk to the receptionist and she didn't believe anything that I said. She just asked me if I wanted a refund without even looking at the room. Worst hotel experience I've had </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r216304528-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>216304528</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Badly Managed</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights recently. We got a good rate and things didnt appear that bad from reviews on other sites. When we got there at 3:30 we were told the room wouldn't be ready for another hour, check in is at 3pm. That wasnt a big deal, went off to get some food and see the Broncos stadium which is down the road. We came back at 5:20 and the room still wasnt ready, so we hung around for an additional 10 minutes in the lobby. Not the best start, but stayed optimistic. We walked through the hallway to the room and noticed it wasnt exactly in the best condition, still not a problem we weren't expecting the Fairmont. Once in the room we saw we had no fridge when our booking stated a fridge was included, now this was a bit of a problem as we had food that needed to be kept cold. Went to front office and the gentleman says all the rooms with fridges are gone, I made my claim for one and he said he will call housekeeping and get back to me. His name tag stated General Manager and he never called me back. Now that is poor form for the supposed General Manager. To make things worse we walked past house keeping and there was a fridge and microwave there. I can only assume that this phone call was never made....Stayed here for 2 nights recently. We got a good rate and things didnt appear that bad from reviews on other sites. When we got there at 3:30 we were told the room wouldn't be ready for another hour, check in is at 3pm. That wasnt a big deal, went off to get some food and see the Broncos stadium which is down the road. We came back at 5:20 and the room still wasnt ready, so we hung around for an additional 10 minutes in the lobby. Not the best start, but stayed optimistic. We walked through the hallway to the room and noticed it wasnt exactly in the best condition, still not a problem we weren't expecting the Fairmont. Once in the room we saw we had no fridge when our booking stated a fridge was included, now this was a bit of a problem as we had food that needed to be kept cold. Went to front office and the gentleman says all the rooms with fridges are gone, I made my claim for one and he said he will call housekeeping and get back to me. His name tag stated General Manager and he never called me back. Now that is poor form for the supposed General Manager. To make things worse we walked past house keeping and there was a fridge and microwave there. I can only assume that this phone call was never made. We ended up using the ice machine and putting it in our cooler to keep our stuff cold. The room itself was a good size even though it wasnt in the best condition but in all fairness the bed was very comfortable and we got 2 good nights rest. The continental breakfast wasnt exactly the best and they dont have boiling water on premises. I wouldnt stay here again as it left a bitter taste and its very run down but the beds were comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights recently. We got a good rate and things didnt appear that bad from reviews on other sites. When we got there at 3:30 we were told the room wouldn't be ready for another hour, check in is at 3pm. That wasnt a big deal, went off to get some food and see the Broncos stadium which is down the road. We came back at 5:20 and the room still wasnt ready, so we hung around for an additional 10 minutes in the lobby. Not the best start, but stayed optimistic. We walked through the hallway to the room and noticed it wasnt exactly in the best condition, still not a problem we weren't expecting the Fairmont. Once in the room we saw we had no fridge when our booking stated a fridge was included, now this was a bit of a problem as we had food that needed to be kept cold. Went to front office and the gentleman says all the rooms with fridges are gone, I made my claim for one and he said he will call housekeeping and get back to me. His name tag stated General Manager and he never called me back. Now that is poor form for the supposed General Manager. To make things worse we walked past house keeping and there was a fridge and microwave there. I can only assume that this phone call was never made....Stayed here for 2 nights recently. We got a good rate and things didnt appear that bad from reviews on other sites. When we got there at 3:30 we were told the room wouldn't be ready for another hour, check in is at 3pm. That wasnt a big deal, went off to get some food and see the Broncos stadium which is down the road. We came back at 5:20 and the room still wasnt ready, so we hung around for an additional 10 minutes in the lobby. Not the best start, but stayed optimistic. We walked through the hallway to the room and noticed it wasnt exactly in the best condition, still not a problem we weren't expecting the Fairmont. Once in the room we saw we had no fridge when our booking stated a fridge was included, now this was a bit of a problem as we had food that needed to be kept cold. Went to front office and the gentleman says all the rooms with fridges are gone, I made my claim for one and he said he will call housekeeping and get back to me. His name tag stated General Manager and he never called me back. Now that is poor form for the supposed General Manager. To make things worse we walked past house keeping and there was a fridge and microwave there. I can only assume that this phone call was never made. We ended up using the ice machine and putting it in our cooler to keep our stuff cold. The room itself was a good size even though it wasnt in the best condition but in all fairness the bed was very comfortable and we got 2 good nights rest. The continental breakfast wasnt exactly the best and they dont have boiling water on premises. I wouldnt stay here again as it left a bitter taste and its very run down but the beds were comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r215450624-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>215450624</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>First off the staff was rude, not helpful. The place was dirty and deceiving. Our room was dark, dingy and crawling with bugs (earwings)!!! It was absolutely the worst place I've ever stayed! It gives me the creepy crawls taking about it. The neighborhood is not safe. We told the front desk about the bugs in the room and they gave us bug spray to spray ourselves. She also stated other rooms were having the same problem! She never offered to switch us to a different room, not that, that would make a difference! The hotel, if you want to call that, is nasty. And will give you nightmares, if not that you'll lose sleep from the bugs crawling around when the lights are turned off. If you see this place, TURN AROUND!!!!It should be shut down!MoreShow less</t>
+  </si>
+  <si>
+    <t>First off the staff was rude, not helpful. The place was dirty and deceiving. Our room was dark, dingy and crawling with bugs (earwings)!!! It was absolutely the worst place I've ever stayed! It gives me the creepy crawls taking about it. The neighborhood is not safe. We told the front desk about the bugs in the room and they gave us bug spray to spray ourselves. She also stated other rooms were having the same problem! She never offered to switch us to a different room, not that, that would make a difference! The hotel, if you want to call that, is nasty. And will give you nightmares, if not that you'll lose sleep from the bugs crawling around when the lights are turned off. If you see this place, TURN AROUND!!!!It should be shut down!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r208513684-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>208513684</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>CrisGarcia23, General Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded June 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r204361048-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>204361048</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>CrisGarcia23, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded June 7, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r204154308-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>204154308</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r204125718-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>204125718</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r194343558-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>194343558</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r194103537-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>194103537</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Horrible experience when accused and raided by police.</t>
+  </si>
+  <si>
+    <t>My boyfriend and I recently stayed here and it hands down was the worst hotel experience ever. We live in Denver and like to get away sometimes so we occasionally get a room. I picked the Howard Johnson because aside from the other run down hotels on federal, this one seemed slightly cleaner than the others. Not even thirty minutes after we arrived, a heroin addict pounded on our door obviously looking for the person who had the room before us. From that moment I knew we'd have problems. But we stayed anyways to get our money's worth. In the morning we were woke by 4 police men pounding on the door claiming we were selling drugs out of the room. We were harassed, searched, judged, and just outright disrespected. I was almost arrested because of a used bag of drugs stuffed between the mattress clearly from whoever stayed before us. After they finally left, we packed up and left. While walking out we seen 20-30 police, some detectives and undercovers. The whole damn place obviously got raided. This hotel is pathetic. All we wanted to do was spend a night together alone and enjoy my only day off this week by sleeping in. Obviously couldn't happen. I encourage everyone to stay the hell away from this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I recently stayed here and it hands down was the worst hotel experience ever. We live in Denver and like to get away sometimes so we occasionally get a room. I picked the Howard Johnson because aside from the other run down hotels on federal, this one seemed slightly cleaner than the others. Not even thirty minutes after we arrived, a heroin addict pounded on our door obviously looking for the person who had the room before us. From that moment I knew we'd have problems. But we stayed anyways to get our money's worth. In the morning we were woke by 4 police men pounding on the door claiming we were selling drugs out of the room. We were harassed, searched, judged, and just outright disrespected. I was almost arrested because of a used bag of drugs stuffed between the mattress clearly from whoever stayed before us. After they finally left, we packed up and left. While walking out we seen 20-30 police, some detectives and undercovers. The whole damn place obviously got raided. This hotel is pathetic. All we wanted to do was spend a night together alone and enjoy my only day off this week by sleeping in. Obviously couldn't happen. I encourage everyone to stay the hell away from this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r191638583-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>191638583</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r181303203-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>181303203</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r180824095-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>180824095</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r178649152-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>178649152</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r173953355-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>173953355</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r172122359-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>172122359</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r172117939-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>172117939</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r170173362-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>170173362</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r169806364-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>169806364</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r169221862-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>169221862</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Worst place we have ever stayed!</t>
+  </si>
+  <si>
+    <t>I knew by the price that it wasn't going to be a great motel/inn, but this was literally the worst motel I have ever stayed in. The neighborhood is sketchy, it is not kept up at all, it is dirty,  and the front desk staff was rude. We booked this hotel through hotels.com and per their website it had a hot tub. It does not. It has what was a hot tub that is now filled in with cement and rock. The outside of the building has graffiti tags with gang names. Our room was disgusting. The phone was missing most of the buttons, there were weird holes in the walls and ceiling, the walls and ceiling were painted but they didn't paint over all of the previous color in some areas, the bathroom floor had not been cleaned, there was mold in the shower and on the bathroom ceiling, the furniture was very beat up, there were initials carved in the drywall in the room. They also serve a continental breakfast from 6:30 to 10:30 am. We went down at 8:45, they were out of milk, juice, bread, and waffle mix. We asked if they were going to put more out, the front desk staff was very rude and hateful and they did not put more breakfast supplies out. We were not the only guests who complained about this. Yuck yuck yuck!MoreShow less</t>
+  </si>
+  <si>
+    <t>I knew by the price that it wasn't going to be a great motel/inn, but this was literally the worst motel I have ever stayed in. The neighborhood is sketchy, it is not kept up at all, it is dirty,  and the front desk staff was rude. We booked this hotel through hotels.com and per their website it had a hot tub. It does not. It has what was a hot tub that is now filled in with cement and rock. The outside of the building has graffiti tags with gang names. Our room was disgusting. The phone was missing most of the buttons, there were weird holes in the walls and ceiling, the walls and ceiling were painted but they didn't paint over all of the previous color in some areas, the bathroom floor had not been cleaned, there was mold in the shower and on the bathroom ceiling, the furniture was very beat up, there were initials carved in the drywall in the room. They also serve a continental breakfast from 6:30 to 10:30 am. We went down at 8:45, they were out of milk, juice, bread, and waffle mix. We asked if they were going to put more out, the front desk staff was very rude and hateful and they did not put more breakfast supplies out. We were not the only guests who complained about this. Yuck yuck yuck!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r168567718-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>168567718</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>CRACK HOUSE OF DENVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst hotel I have stayed at. Dirty rooms, Dirty hallways, Dirty stairway and Dirty people comming in.      </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r167105444-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>167105444</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r166625947-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>166625947</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r165462150-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>165462150</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Quick Business Trip</t>
+  </si>
+  <si>
+    <t>My flight was delayed and I missed my connection in Denver so I desperately needed a place to stay. Unfortunately for me this was my only option and it wasnt a good one. No coffee/breakfast available. The shower was so disgusting and unclean that I couldnt shower in it. I had a hard time sleeping the room was just horrid. Would not recommend.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r162450988-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>162450988</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r162209416-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>162209416</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r158950282-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>158950282</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r158905838-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>158905838</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r157341848-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>157341848</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>COMFORTABLE AND GOOD PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>Ashley Lovato WillhoiteI stayed at the Howard Johnson a few times, and few days at a time. I enjoy my stay everytime. Debra the manager is awsome always so friendly everytime i check in.  When i do stay a couple days at a time housekeeping is always so helpfull... The beds are compfortable i could sleep all day!! I always stay here when iam in the area.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r155514105-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>155514105</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Ben G, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r154810954-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>154810954</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r153876246-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>153876246</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r144981510-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>144981510</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Pretty Good Value Ecomomy Motel</t>
+  </si>
+  <si>
+    <t>It was Pretty Good Ecomomy Motel with good value, less than $50.They provide good continental breakfast including hot waffle, and fair room amenties and facilities. There is Convenient store with gas within the premise, it's very convenient.Also friendly staffs in the evening when I checked in and check out in the morning.But no refrigerator or micro wave in the room. Some light in the room is still not working.Overall it's good motel in the $50 range!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Ben G, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded November 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2012</t>
+  </si>
+  <si>
+    <t>It was Pretty Good Ecomomy Motel with good value, less than $50.They provide good continental breakfast including hot waffle, and fair room amenties and facilities. There is Convenient store with gas within the premise, it's very convenient.Also friendly staffs in the evening when I checked in and check out in the morning.But no refrigerator or micro wave in the room. Some light in the room is still not working.Overall it's good motel in the $50 range!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r143952688-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>143952688</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>A Hell Hole</t>
+  </si>
+  <si>
+    <t>Stayed for one night October 26, 2011. Not really dirty, but ugly/in need of repair. Room 219's bathroom counter was half torn-off, wallpaper (if it can be called that) was peeling off the bathroom wall. Halls looked dirty and smelled of smoke. Front desk even looked trashy, staff not very helpful. No pride of ownership at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for one night October 26, 2011. Not really dirty, but ugly/in need of repair. Room 219's bathroom counter was half torn-off, wallpaper (if it can be called that) was peeling off the bathroom wall. Halls looked dirty and smelled of smoke. Front desk even looked trashy, staff not very helpful. No pride of ownership at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r143578509-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>143578509</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r142396506-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>142396506</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Night Mare</t>
+  </si>
+  <si>
+    <t>This place should Close down ,The Room had MIldew on the Celing, Spider web every where, The balcony coverd with trash, and Rothing food, Bathroom, Mildew ,Horrifying...I called the Healt Department to report and send lots of Picture for them, I had to go to see Dr, My face swolled up from allergic reaction,,,,,I would not spend $1 to stay in this Hotel,,,I did for $150Stay away from this place that what I can say!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Ben G, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded October 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2012</t>
+  </si>
+  <si>
+    <t>This place should Close down ,The Room had MIldew on the Celing, Spider web every where, The balcony coverd with trash, and Rothing food, Bathroom, Mildew ,Horrifying...I called the Healt Department to report and send lots of Picture for them, I had to go to see Dr, My face swolled up from allergic reaction,,,,,I would not spend $1 to stay in this Hotel,,,I did for $150Stay away from this place that what I can say!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r141199841-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>141199841</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Horrifying experience</t>
+  </si>
+  <si>
+    <t>Never stay here. 3AM in the morning, we were tired, needed a place to rest...thought the Howard Johnson would do just fine from the looks of it. That was not the case. The hotel was disgusting - dingy and dirty, and we felt extremely unsafe. We were being eyed down by people hanging out in the hallway at this wee hour and they watched us walk into our room. We were receiving phone calls at 3:30AM from another guest(s) and were awoken soon after by banging on our hotel room door.. We did not answer, but through the door peep-hole they seemed like they were up to no good. There was no security in the place. Our cellular phones were dead and we felt so uncomfortable at one point that we dialed what the phone said to dial for an emergency: "9 and then 9-1-1." The phone did not even allow for us to call NINE-ONE-ONE! The phone didn't allow for us to call the front desk either. That really got us spooked. We ended up feeling so threatened that we jumped out of our hotel window and left the area immediately. Maybe we overreacted? But I do not believe that to be the case. If you go to this hotel, I would recommend getting there early in the day while it is still light out and stay in your room through the night. Better yet, I recommend staying somewhere...Never stay here. 3AM in the morning, we were tired, needed a place to rest...thought the Howard Johnson would do just fine from the looks of it. That was not the case. The hotel was disgusting - dingy and dirty, and we felt extremely unsafe. We were being eyed down by people hanging out in the hallway at this wee hour and they watched us walk into our room. We were receiving phone calls at 3:30AM from another guest(s) and were awoken soon after by banging on our hotel room door.. We did not answer, but through the door peep-hole they seemed like they were up to no good. There was no security in the place. Our cellular phones were dead and we felt so uncomfortable at one point that we dialed what the phone said to dial for an emergency: "9 and then 9-1-1." The phone did not even allow for us to call NINE-ONE-ONE! The phone didn't allow for us to call the front desk either. That really got us spooked. We ended up feeling so threatened that we jumped out of our hotel window and left the area immediately. Maybe we overreacted? But I do not believe that to be the case. If you go to this hotel, I would recommend getting there early in the day while it is still light out and stay in your room through the night. Better yet, I recommend staying somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Never stay here. 3AM in the morning, we were tired, needed a place to rest...thought the Howard Johnson would do just fine from the looks of it. That was not the case. The hotel was disgusting - dingy and dirty, and we felt extremely unsafe. We were being eyed down by people hanging out in the hallway at this wee hour and they watched us walk into our room. We were receiving phone calls at 3:30AM from another guest(s) and were awoken soon after by banging on our hotel room door.. We did not answer, but through the door peep-hole they seemed like they were up to no good. There was no security in the place. Our cellular phones were dead and we felt so uncomfortable at one point that we dialed what the phone said to dial for an emergency: "9 and then 9-1-1." The phone did not even allow for us to call NINE-ONE-ONE! The phone didn't allow for us to call the front desk either. That really got us spooked. We ended up feeling so threatened that we jumped out of our hotel window and left the area immediately. Maybe we overreacted? But I do not believe that to be the case. If you go to this hotel, I would recommend getting there early in the day while it is still light out and stay in your room through the night. Better yet, I recommend staying somewhere...Never stay here. 3AM in the morning, we were tired, needed a place to rest...thought the Howard Johnson would do just fine from the looks of it. That was not the case. The hotel was disgusting - dingy and dirty, and we felt extremely unsafe. We were being eyed down by people hanging out in the hallway at this wee hour and they watched us walk into our room. We were receiving phone calls at 3:30AM from another guest(s) and were awoken soon after by banging on our hotel room door.. We did not answer, but through the door peep-hole they seemed like they were up to no good. There was no security in the place. Our cellular phones were dead and we felt so uncomfortable at one point that we dialed what the phone said to dial for an emergency: "9 and then 9-1-1." The phone did not even allow for us to call NINE-ONE-ONE! The phone didn't allow for us to call the front desk either. That really got us spooked. We ended up feeling so threatened that we jumped out of our hotel window and left the area immediately. Maybe we overreacted? But I do not believe that to be the case. If you go to this hotel, I would recommend getting there early in the day while it is still light out and stay in your room through the night. Better yet, I recommend staying somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r137519792-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>137519792</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>Avoid The Plague</t>
+  </si>
+  <si>
+    <t>Good coupon value stops there. I have stayed at this property over one month over the last 3 while in town. Location is good but the problems are here described accurate not with personal feelings. Bld 1 coupons and full rate over night guests nicest rooms even have hair dryers...bld 2 has weeklys and where I'm staying....bld 3 I have walked thru alleys that felt safer with the drunks, roommate freeway panhandlers coming and going and the bums coming to visit friends thru the back doorway that accesses the park. Recently trash was pilling up daily at the trash cans/ ash trays at entrance ways in the evenings.....the maids empty around 10, so the hotel idea was put notice on every door informing you must now take your trash out to dumpster they're removing trash cans......ha, the lady in her lawn mowing clothes faded black tshirt and black sweats working the front desk is the most pleasnt with her ponied tailed side kick who while having packages delivered by the mailman (something I do near daily) interupted to hastly ask are you staying here with few more comments about my frequent packages to have the mailman turn to me and say why do they act like that.......I explained that is white trash at it's finest.........no its not personal only insightful and revealing......avoid this dump like the trash thrown all around the dumpster not in nor picked up by staff, avoid...Good coupon value stops there. I have stayed at this property over one month over the last 3 while in town. Location is good but the problems are here described accurate not with personal feelings. Bld 1 coupons and full rate over night guests nicest rooms even have hair dryers...bld 2 has weeklys and where I'm staying....bld 3 I have walked thru alleys that felt safer with the drunks, roommate freeway panhandlers coming and going and the bums coming to visit friends thru the back doorway that accesses the park. Recently trash was pilling up daily at the trash cans/ ash trays at entrance ways in the evenings.....the maids empty around 10, so the hotel idea was put notice on every door informing you must now take your trash out to dumpster they're removing trash cans......ha, the lady in her lawn mowing clothes faded black tshirt and black sweats working the front desk is the most pleasnt with her ponied tailed side kick who while having packages delivered by the mailman (something I do near daily) interupted to hastly ask are you staying here with few more comments about my frequent packages to have the mailman turn to me and say why do they act like that.......I explained that is white trash at it's finest.........no its not personal only insightful and revealing......avoid this dump like the trash thrown all around the dumpster not in nor picked up by staff, avoid like the two upolstered chairs that were removed from rooms that have been sitting at the end of the hallway in bld 2 next to the soda machine for 5 days now with huge blood stains staff seems to not care about finding storage or trash for...........honestly you always get what you pay for as a traveler who pays his own rooms I know value is hard to find and rates for rooms are a high expense but motel 6 is a more fitting description of this place.....ha the funny thing is I just went to take a picture for you all of the chairs since we can add photo here and at 342am the chairs are gone having been there just an hour ago........friday night sure someone pulled into room to have more seating shame that faded blod stain nobody who saw last 5 days knew is blood........I check out in hours not supporting a business owner and management like this any longerMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Good coupon value stops there. I have stayed at this property over one month over the last 3 while in town. Location is good but the problems are here described accurate not with personal feelings. Bld 1 coupons and full rate over night guests nicest rooms even have hair dryers...bld 2 has weeklys and where I'm staying....bld 3 I have walked thru alleys that felt safer with the drunks, roommate freeway panhandlers coming and going and the bums coming to visit friends thru the back doorway that accesses the park. Recently trash was pilling up daily at the trash cans/ ash trays at entrance ways in the evenings.....the maids empty around 10, so the hotel idea was put notice on every door informing you must now take your trash out to dumpster they're removing trash cans......ha, the lady in her lawn mowing clothes faded black tshirt and black sweats working the front desk is the most pleasnt with her ponied tailed side kick who while having packages delivered by the mailman (something I do near daily) interupted to hastly ask are you staying here with few more comments about my frequent packages to have the mailman turn to me and say why do they act like that.......I explained that is white trash at it's finest.........no its not personal only insightful and revealing......avoid this dump like the trash thrown all around the dumpster not in nor picked up by staff, avoid...Good coupon value stops there. I have stayed at this property over one month over the last 3 while in town. Location is good but the problems are here described accurate not with personal feelings. Bld 1 coupons and full rate over night guests nicest rooms even have hair dryers...bld 2 has weeklys and where I'm staying....bld 3 I have walked thru alleys that felt safer with the drunks, roommate freeway panhandlers coming and going and the bums coming to visit friends thru the back doorway that accesses the park. Recently trash was pilling up daily at the trash cans/ ash trays at entrance ways in the evenings.....the maids empty around 10, so the hotel idea was put notice on every door informing you must now take your trash out to dumpster they're removing trash cans......ha, the lady in her lawn mowing clothes faded black tshirt and black sweats working the front desk is the most pleasnt with her ponied tailed side kick who while having packages delivered by the mailman (something I do near daily) interupted to hastly ask are you staying here with few more comments about my frequent packages to have the mailman turn to me and say why do they act like that.......I explained that is white trash at it's finest.........no its not personal only insightful and revealing......avoid this dump like the trash thrown all around the dumpster not in nor picked up by staff, avoid like the two upolstered chairs that were removed from rooms that have been sitting at the end of the hallway in bld 2 next to the soda machine for 5 days now with huge blood stains staff seems to not care about finding storage or trash for...........honestly you always get what you pay for as a traveler who pays his own rooms I know value is hard to find and rates for rooms are a high expense but motel 6 is a more fitting description of this place.....ha the funny thing is I just went to take a picture for you all of the chairs since we can add photo here and at 342am the chairs are gone having been there just an hour ago........friday night sure someone pulled into room to have more seating shame that faded blod stain nobody who saw last 5 days knew is blood........I check out in hours not supporting a business owner and management like this any longerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r132627801-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>132627801</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Crap</t>
+  </si>
+  <si>
+    <t>Paint fallng off,hole in bathroom wall,dirty,bed was broke and they never came to fix,over all VERY bad visit,oh did i forget to mention mold in shower and pool has not been open yet i was told</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r131677133-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>131677133</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pictures on the internet were beautiful...when we pulled up to the hotel our mouths dropped to the ground. This is by far the worst hotel we have ever booked. We were looking forward to a relaxing vacation. They had no pool, no elevator, therefore we had lug or lugage up the stairs. The beds weren't even comfortable. We wanted to open the windows to get some fresh air but the window didn't even have a screen on it. When we went for breakfast the next morning the bread was expired and hard. They didn't have their juices or milk on ice so it wasn't cold. Worst experience ever. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r130475884-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>130475884</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>Needs to be torn down</t>
+  </si>
+  <si>
+    <t>I'm a business traveler and I purposely set my expectations low so that I can be pleasantly surprised by the very least of conveniences. For that reason, I was pleased to have a minifridge, full ironing board, iron, and wall mounted hair dryer in the room. As for the room itself, the carpet had patches missing, I killed 5 spiders in the room (one lurking on the other side of my bathmat when I picked it up off the tub) - sent me squealing like a schoolgirl before my first morning's shower. haha. But I wrote an email to the chain telling them this location is not befitting their name and they really need to tear it down and start over. Took me a few days to get used to the dreariness and dumpiness of the place. Don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I'm a business traveler and I purposely set my expectations low so that I can be pleasantly surprised by the very least of conveniences. For that reason, I was pleased to have a minifridge, full ironing board, iron, and wall mounted hair dryer in the room. As for the room itself, the carpet had patches missing, I killed 5 spiders in the room (one lurking on the other side of my bathmat when I picked it up off the tub) - sent me squealing like a schoolgirl before my first morning's shower. haha. But I wrote an email to the chain telling them this location is not befitting their name and they really need to tear it down and start over. Took me a few days to get used to the dreariness and dumpiness of the place. Don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r122470113-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>122470113</t>
+  </si>
+  <si>
+    <t>01/03/2012</t>
+  </si>
+  <si>
+    <t>Don't Let the bad reviews keep you away</t>
+  </si>
+  <si>
+    <t>I was a little worried after reading all the reviews after Hotwire confirmed this as my hotel.  I read the one about Brenda and the others in reference to bad smells and just dirtyness.  So when we arrived I was already to look at the room and then go book something else and spend the next few weeks arguing with Hotwire to get my money back.
+If you book this hotel with HJ direct you will pay mid $60's during the week and mid $80's on the weekend.  I checked in on New Years Eve and the person next to us was paying $89 for the night.  For this price I would RUN for the hills.  But if you go to Hotels.com its $60 and stay 3 nights and it drops to mid $40's.  Book with Hotwire and pick this area and its $38.00 plus fees so about $41.00 per night.  For this price its worth its one star.
+I booked two rooms and arrived to checkin.  A lady was at checkin and I said I had a hotwire reservation and she found it right away and started getting keys.  I looked at the name of the duty manager and it said Brenda.  I was waiting for some of the problems that I had read about and was surprised when Brenda was friendly and helpful.
+We got to the rooms and had 108 and 110.  They were both big with...I was a little worried after reading all the reviews after Hotwire confirmed this as my hotel.  I read the one about Brenda and the others in reference to bad smells and just dirtyness.  So when we arrived I was already to look at the room and then go book something else and spend the next few weeks arguing with Hotwire to get my money back.If you book this hotel with HJ direct you will pay mid $60's during the week and mid $80's on the weekend.  I checked in on New Years Eve and the person next to us was paying $89 for the night.  For this price I would RUN for the hills.  But if you go to Hotels.com its $60 and stay 3 nights and it drops to mid $40's.  Book with Hotwire and pick this area and its $38.00 plus fees so about $41.00 per night.  For this price its worth its one star.I booked two rooms and arrived to checkin.  A lady was at checkin and I said I had a hotwire reservation and she found it right away and started getting keys.  I looked at the name of the duty manager and it said Brenda.  I was waiting for some of the problems that I had read about and was surprised when Brenda was friendly and helpful.We got to the rooms and had 108 and 110.  They were both big with two queen beds,  110 had newer carpet but 108 had a fridge.  The bathrooms were clean and stocked with towels and shampoo.  The beds were clean and comfortable.  No bad smells or the infestation of spiders that I had read about.I was expecting noise and a restless sleep due to other complaints and was actually surprised that New Years Eve was not louder.  Last New Years in Vegas there were doors banging all night.  Breakfast was standard pastries, coffee, orange juice and waffles.  Came back to the room and had a hot shower with great water pressure.So these are the good points.  As an added bonus if you are coming for a Football game this hotel is on the bus route and only 2 miles away and as we drove by the stadium parking was $40 so right there you saved the cost of the room.  Some of the things I would agree with is the loudness of the shower.  If the room above or next door use the shower you can hear it.  The appearance of some of the area's could be improved.  For instance when you eat breakfast the room off to the side has dirty curtains and you can see all the stuff stored.  Above the door to the building again had dirty curtains with boxes stored up against the window.  There is a computer in the breakfast area but the printer does not work  The keycard door to the building was broken so anyone can get in.  But the keycards to the rooms were new and the doors were very secure.Brenda lives on the property so is here all the time I think between her and her husband no one else works the front.  They have small children and you can hear them when you checkin which is a bit un-preofessional.  But overall we are at the hotel for only a few hours a night so its really not a problem.  After all this is not a resort I did not book to stay at the hotel for my stay.If you book for $80 your crazy this is a one star hotel possibly one start plus with breakfast.  But do your research and check for best prices.  We had to stay because I booked hotwire non-refundable but rack rates can be canceled especially if the room is bad or un-safe. Added bonus # 2 There is a nice sized lake right behind the hotel with a walking track.  Very nice.  Area seemed very safe.  Mexican restaurant attached to hotel was busy all the time and gas station is also on property with store.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I was a little worried after reading all the reviews after Hotwire confirmed this as my hotel.  I read the one about Brenda and the others in reference to bad smells and just dirtyness.  So when we arrived I was already to look at the room and then go book something else and spend the next few weeks arguing with Hotwire to get my money back.
+If you book this hotel with HJ direct you will pay mid $60's during the week and mid $80's on the weekend.  I checked in on New Years Eve and the person next to us was paying $89 for the night.  For this price I would RUN for the hills.  But if you go to Hotels.com its $60 and stay 3 nights and it drops to mid $40's.  Book with Hotwire and pick this area and its $38.00 plus fees so about $41.00 per night.  For this price its worth its one star.
+I booked two rooms and arrived to checkin.  A lady was at checkin and I said I had a hotwire reservation and she found it right away and started getting keys.  I looked at the name of the duty manager and it said Brenda.  I was waiting for some of the problems that I had read about and was surprised when Brenda was friendly and helpful.
+We got to the rooms and had 108 and 110.  They were both big with...I was a little worried after reading all the reviews after Hotwire confirmed this as my hotel.  I read the one about Brenda and the others in reference to bad smells and just dirtyness.  So when we arrived I was already to look at the room and then go book something else and spend the next few weeks arguing with Hotwire to get my money back.If you book this hotel with HJ direct you will pay mid $60's during the week and mid $80's on the weekend.  I checked in on New Years Eve and the person next to us was paying $89 for the night.  For this price I would RUN for the hills.  But if you go to Hotels.com its $60 and stay 3 nights and it drops to mid $40's.  Book with Hotwire and pick this area and its $38.00 plus fees so about $41.00 per night.  For this price its worth its one star.I booked two rooms and arrived to checkin.  A lady was at checkin and I said I had a hotwire reservation and she found it right away and started getting keys.  I looked at the name of the duty manager and it said Brenda.  I was waiting for some of the problems that I had read about and was surprised when Brenda was friendly and helpful.We got to the rooms and had 108 and 110.  They were both big with two queen beds,  110 had newer carpet but 108 had a fridge.  The bathrooms were clean and stocked with towels and shampoo.  The beds were clean and comfortable.  No bad smells or the infestation of spiders that I had read about.I was expecting noise and a restless sleep due to other complaints and was actually surprised that New Years Eve was not louder.  Last New Years in Vegas there were doors banging all night.  Breakfast was standard pastries, coffee, orange juice and waffles.  Came back to the room and had a hot shower with great water pressure.So these are the good points.  As an added bonus if you are coming for a Football game this hotel is on the bus route and only 2 miles away and as we drove by the stadium parking was $40 so right there you saved the cost of the room.  Some of the things I would agree with is the loudness of the shower.  If the room above or next door use the shower you can hear it.  The appearance of some of the area's could be improved.  For instance when you eat breakfast the room off to the side has dirty curtains and you can see all the stuff stored.  Above the door to the building again had dirty curtains with boxes stored up against the window.  There is a computer in the breakfast area but the printer does not work  The keycard door to the building was broken so anyone can get in.  But the keycards to the rooms were new and the doors were very secure.Brenda lives on the property so is here all the time I think between her and her husband no one else works the front.  They have small children and you can hear them when you checkin which is a bit un-preofessional.  But overall we are at the hotel for only a few hours a night so its really not a problem.  After all this is not a resort I did not book to stay at the hotel for my stay.If you book for $80 your crazy this is a one star hotel possibly one start plus with breakfast.  But do your research and check for best prices.  We had to stay because I booked hotwire non-refundable but rack rates can be canceled especially if the room is bad or un-safe. Added bonus # 2 There is a nice sized lake right behind the hotel with a walking track.  Very nice.  Area seemed very safe.  Mexican restaurant attached to hotel was busy all the time and gas station is also on property with store.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r116140393-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>116140393</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>Brenda will steal your Money And Blame it on YOU and the BANK!</t>
+  </si>
+  <si>
+    <t>So me and my friend had horrible luck finding a hotel, apparently the week we planned our trip to Denver, American Idol auditions were there too. After a sketchy motel 8 expirience we decided to head to the Howard Johnson. The rate was good room was decent....kinda creepy people were lurking outside though. We were staying for two days my friend was going to pay for the first night then I for the second, so naturally they had both our credit card info (IF YOU STAY HERE PAY WITH CASH!). When we checked in the guy working said he didnt know what he was doing and his wife would take care of everything in the morning. The next morning I called the desk to make sure we were all good, she said we were only booked one night but would take care of it. SO, it was my turn to be charged and they said it wasnt a problem. I checked my bank account and there was no charge, however my friend had a charge from the night before, normal, and a new one for 114.82 that was two days of a charge. Thinking it was an easy fix we went to the front desk. Nope it was the opposite the woman, Brenda, said that they never charged for anything and we were lying- funny as to how the charge on wells fargo said it was from Howard Johnson. She...So me and my friend had horrible luck finding a hotel, apparently the week we planned our trip to Denver, American Idol auditions were there too. After a sketchy motel 8 expirience we decided to head to the Howard Johnson. The rate was good room was decent....kinda creepy people were lurking outside though. We were staying for two days my friend was going to pay for the first night then I for the second, so naturally they had both our credit card info (IF YOU STAY HERE PAY WITH CASH!). When we checked in the guy working said he didnt know what he was doing and his wife would take care of everything in the morning. The next morning I called the desk to make sure we were all good, she said we were only booked one night but would take care of it. SO, it was my turn to be charged and they said it wasnt a problem. I checked my bank account and there was no charge, however my friend had a charge from the night before, normal, and a new one for 114.82 that was two days of a charge. Thinking it was an easy fix we went to the front desk. Nope it was the opposite the woman, Brenda, said that they never charged for anything and we were lying- funny as to how the charge on wells fargo said it was from Howard Johnson. She told her to call her bank, the bank could get the money back from HOJO however they needed info from Brenda, but she didnt have it, even though she told us she was the manager (which was a lie). Then little did she know I work for the Khan's (a family who owns tons of hotels n' doesnt mess around with stuff like this) they gave me the corporate number (because they own several HOJO's) and chewed Brenda out for not knowing what in the world she was doing or talking about. So Brenda told us the number wouldnt work because it was the weekend, we called: it did. Then to avoid the same issue with my card I told her to delete all my information, of course though i checked my info and was also getting a wack charge only a few min. after. She then told us that Wells Fargo was the one making all of these charges, she would go to any extent to not admit that she screwed up. Wells Fargo told us that, that isnt possible, to get into Hojo's database and charge us off of it. Well Brenda said he was lying. After 3hours I finally got to talk to the real manager who did give us a refund for the mistake, however, it was not immediate, we had to wait until wed. even though we needed that money now, and they charged for all this bogus stuff. Also she screwed up the refunds I recieved my friends whole refund so now I owe her. We had to file claims with bank too. DO NOT GO HERE! BRENDA IS A MONSTER WHO LIES AND WILL ROB YOU, AND OBVIOUSLY CANT HANDLE A SIMPLE TRANSACTION!*UPDATE- It is now 3 days later, still no refund, but at this point I just dont care. Now the manager lied, however, corporate will handle it and my bank is going through a claim with them. SO I WILL GET MY MONEY BACK ONE WAY OR ANOTHER.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>So me and my friend had horrible luck finding a hotel, apparently the week we planned our trip to Denver, American Idol auditions were there too. After a sketchy motel 8 expirience we decided to head to the Howard Johnson. The rate was good room was decent....kinda creepy people were lurking outside though. We were staying for two days my friend was going to pay for the first night then I for the second, so naturally they had both our credit card info (IF YOU STAY HERE PAY WITH CASH!). When we checked in the guy working said he didnt know what he was doing and his wife would take care of everything in the morning. The next morning I called the desk to make sure we were all good, she said we were only booked one night but would take care of it. SO, it was my turn to be charged and they said it wasnt a problem. I checked my bank account and there was no charge, however my friend had a charge from the night before, normal, and a new one for 114.82 that was two days of a charge. Thinking it was an easy fix we went to the front desk. Nope it was the opposite the woman, Brenda, said that they never charged for anything and we were lying- funny as to how the charge on wells fargo said it was from Howard Johnson. She...So me and my friend had horrible luck finding a hotel, apparently the week we planned our trip to Denver, American Idol auditions were there too. After a sketchy motel 8 expirience we decided to head to the Howard Johnson. The rate was good room was decent....kinda creepy people were lurking outside though. We were staying for two days my friend was going to pay for the first night then I for the second, so naturally they had both our credit card info (IF YOU STAY HERE PAY WITH CASH!). When we checked in the guy working said he didnt know what he was doing and his wife would take care of everything in the morning. The next morning I called the desk to make sure we were all good, she said we were only booked one night but would take care of it. SO, it was my turn to be charged and they said it wasnt a problem. I checked my bank account and there was no charge, however my friend had a charge from the night before, normal, and a new one for 114.82 that was two days of a charge. Thinking it was an easy fix we went to the front desk. Nope it was the opposite the woman, Brenda, said that they never charged for anything and we were lying- funny as to how the charge on wells fargo said it was from Howard Johnson. She told her to call her bank, the bank could get the money back from HOJO however they needed info from Brenda, but she didnt have it, even though she told us she was the manager (which was a lie). Then little did she know I work for the Khan's (a family who owns tons of hotels n' doesnt mess around with stuff like this) they gave me the corporate number (because they own several HOJO's) and chewed Brenda out for not knowing what in the world she was doing or talking about. So Brenda told us the number wouldnt work because it was the weekend, we called: it did. Then to avoid the same issue with my card I told her to delete all my information, of course though i checked my info and was also getting a wack charge only a few min. after. She then told us that Wells Fargo was the one making all of these charges, she would go to any extent to not admit that she screwed up. Wells Fargo told us that, that isnt possible, to get into Hojo's database and charge us off of it. Well Brenda said he was lying. After 3hours I finally got to talk to the real manager who did give us a refund for the mistake, however, it was not immediate, we had to wait until wed. even though we needed that money now, and they charged for all this bogus stuff. Also she screwed up the refunds I recieved my friends whole refund so now I owe her. We had to file claims with bank too. DO NOT GO HERE! BRENDA IS A MONSTER WHO LIES AND WILL ROB YOU, AND OBVIOUSLY CANT HANDLE A SIMPLE TRANSACTION!*UPDATE- It is now 3 days later, still no refund, but at this point I just dont care. Now the manager lied, however, corporate will handle it and my bank is going through a claim with them. SO I WILL GET MY MONEY BACK ONE WAY OR ANOTHER.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r76277609-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>76277609</t>
+  </si>
+  <si>
+    <t>08/22/2010</t>
+  </si>
+  <si>
+    <t>A bargain price but a scary place</t>
+  </si>
+  <si>
+    <t>On-line photos and the ad didn't give a clue to the actual condition of the hotel.  There were men with grocery carts sleeping in the weeds surrounding the parking lot.  The clerk didn't have my pre-paid reservation information and sent me to another hotel.  The clerk complained that the booking site I used doesn't pay the hotel on time.  She refused to call to confirm my reservation.  While I was on hold to the 800#, a permanent hotel guest came into the lobby talking non-sense to anyone who made eye contact.  The hallway light fixtures were burned out.  There was a strong stench in the hallway and the room.  The chair cushions were strained.  The carpet was filthy.  There wasn't even a place where a bathroom exhaust fan was ever installed.  The standard room amenities like an ironing board, hair-dryer, etc., were completely missing.The first morning the maid never appeared and the room wasn't cleaned.  The second morning, the beds were made and a few clean towels appeared, but the carpet wasn't vacuumed.This hotel was chosen for location and proximity to destination.  The bargain price was not worth the unsafe, smelly room and dirty grounds.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>On-line photos and the ad didn't give a clue to the actual condition of the hotel.  There were men with grocery carts sleeping in the weeds surrounding the parking lot.  The clerk didn't have my pre-paid reservation information and sent me to another hotel.  The clerk complained that the booking site I used doesn't pay the hotel on time.  She refused to call to confirm my reservation.  While I was on hold to the 800#, a permanent hotel guest came into the lobby talking non-sense to anyone who made eye contact.  The hallway light fixtures were burned out.  There was a strong stench in the hallway and the room.  The chair cushions were strained.  The carpet was filthy.  There wasn't even a place where a bathroom exhaust fan was ever installed.  The standard room amenities like an ironing board, hair-dryer, etc., were completely missing.The first morning the maid never appeared and the room wasn't cleaned.  The second morning, the beds were made and a few clean towels appeared, but the carpet wasn't vacuumed.This hotel was chosen for location and proximity to destination.  The bargain price was not worth the unsafe, smelly room and dirty grounds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r31293005-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>31293005</t>
+  </si>
+  <si>
+    <t>06/01/2009</t>
+  </si>
+  <si>
+    <t>Dive</t>
+  </si>
+  <si>
+    <t>Probably the worst hotel I've ever stayed at.  Room had an eye watering odor.  It almost smelled like there was a gas leak.  Toilet ran all night and as someone else mentioned, the handle needed to he held down for the entire flush.  Everything was outdated and worn.  Batteries on the remote were being held in place by scotch tape.  TV was unplugged for some reason. I could go on and on....</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r26743078-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>26743078</t>
+  </si>
+  <si>
+    <t>03/24/2009</t>
+  </si>
+  <si>
+    <t>urban location</t>
+  </si>
+  <si>
+    <t>When we pulled in late at night, the attached bar/restaurant was hopping!  A bit disconcerting for a single woman from the boonies.  The room was clean but had a funny smell-carpet shampoo and/or wet dog.  The bathroom vanity was very small-nowhere to put your things.  Beds were fine.The breakfast bar was dark and dreary for our early morning departure.  Waffles were good but difficult to eat with flimsy, cheap plasticware.  The morning staff did not attempt  a friendly greeting.   Most likely, they had been up all night.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r19305378-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>19305378</t>
+  </si>
+  <si>
+    <t>08/24/2008</t>
+  </si>
+  <si>
+    <t>Horrable experience</t>
+  </si>
+  <si>
+    <t>This was the worst experience we have ever had.My wife and myself checked in and had to request a room change, the first room had windows that would not lock. We left to attend the footbal game and when we returned someone had been in our room and went through all our stuff. My medication was missing. We called the front desk to have local police called. Two Denver PD officers were out front and told us they were the ones that had entered our room (without our permission I might add) when I asked for a police report for the stolen medication, the police said nothing was stolen and I did not need a police report. Needless to say, we left the hotel. Never Never Never stay at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>This was the worst experience we have ever had.My wife and myself checked in and had to request a room change, the first room had windows that would not lock. We left to attend the footbal game and when we returned someone had been in our room and went through all our stuff. My medication was missing. We called the front desk to have local police called. Two Denver PD officers were out front and told us they were the ones that had entered our room (without our permission I might add) when I asked for a police report for the stolen medication, the police said nothing was stolen and I did not need a police report. Needless to say, we left the hotel. Never Never Never stay at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r13778543-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>13778543</t>
+  </si>
+  <si>
+    <t>02/23/2008</t>
+  </si>
+  <si>
+    <t>Go somewhere else - quickly!</t>
+  </si>
+  <si>
+    <t>Dump.  To start with the place isn't in the nicest side of town.  Nonetheless, we booked it without looking at TripAdvisor - just for one night before heading into the mountains to ski.  The place is filthy dirty.  Everywhere.  Smells - horrible.  Our non-smoking room clearly accepts smokers too.  The interior is dated, the heater didn't work well, the bathroom was nasty.This is the hotel you expect to get for $29 - not $69.  If you only need a place to stay, and everything else is booked, you'll probably be alright.  Maybe.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r8740447-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>8740447</t>
+  </si>
+  <si>
+    <t>09/16/2007</t>
+  </si>
+  <si>
+    <t>If you only want a bed at a lower price</t>
+  </si>
+  <si>
+    <t>Just needed a room to sleep for 6 hours.  3 of us. A good thing that was all we wanted.  They were pleasant enough for checking in.  There was only 1 wash cloth and they had no more available but did provide 2 more "large" bath towels.  They did have coffee, no stir sticks, no sugar, creamer packets and did not provide them when asked.  The carpet had large cigarette burns in it.  The room smelled of disinfectant.  No screen on the window.  It did provide clean beds.  We never got the wake up call we asked for.  They did have continental breakfast that consisted of waffles that you cooked yourself and small sweet rolls and juice.  We had to ask for the butter and syrup.  All in all, it provided what we needed, which was sleep.  It was a good thing we woke up at the time we needed without the wake-up call.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>Just needed a room to sleep for 6 hours.  3 of us. A good thing that was all we wanted.  They were pleasant enough for checking in.  There was only 1 wash cloth and they had no more available but did provide 2 more "large" bath towels.  They did have coffee, no stir sticks, no sugar, creamer packets and did not provide them when asked.  The carpet had large cigarette burns in it.  The room smelled of disinfectant.  No screen on the window.  It did provide clean beds.  We never got the wake up call we asked for.  They did have continental breakfast that consisted of waffles that you cooked yourself and small sweet rolls and juice.  We had to ask for the butter and syrup.  All in all, it provided what we needed, which was sleep.  It was a good thing we woke up at the time we needed without the wake-up call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r7195104-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>7195104</t>
+  </si>
+  <si>
+    <t>03/19/2007</t>
+  </si>
+  <si>
+    <t>Checked in... Didn't stay!</t>
+  </si>
+  <si>
+    <t>I booked this hotel with hotels.com.  I tried 3 different rooms!!! I was traveling with my 4 small children...Did not stay here.  First of all, advertised check-in time was 3pm. I arrived at 3:30, and they had no rooms ready for me. The first room they did offer,  was extremely dirty, holes in the curtains, a large patch of the ceiling  over the beds looked like it was detached and ready to fall in at any moment, and where the smoke detector was supposed to be, there were just wires hanging out of the wall. So, I asked for a better room. The second room, the electronic lock  was jammed and we could not get the door to unlock. The front desk person looked on her computer and could not figure out what the problem was (thank goodness we were outside the room, and not inside). So, we tried a third room (supposedly one of the nicer rooms). It was a little better, but was still dirty, holes in the curtains, and the smoke detector didn't work. Even if it was dead batteries, there's no excuse. People's lives depend on that LITTLE thing. So, I requested yet a different room. . they said they did not have one available. So, needless to say, I  requested a refund on the room from hotels.com,  and found one on my own.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel with hotels.com.  I tried 3 different rooms!!! I was traveling with my 4 small children...Did not stay here.  First of all, advertised check-in time was 3pm. I arrived at 3:30, and they had no rooms ready for me. The first room they did offer,  was extremely dirty, holes in the curtains, a large patch of the ceiling  over the beds looked like it was detached and ready to fall in at any moment, and where the smoke detector was supposed to be, there were just wires hanging out of the wall. So, I asked for a better room. The second room, the electronic lock  was jammed and we could not get the door to unlock. The front desk person looked on her computer and could not figure out what the problem was (thank goodness we were outside the room, and not inside). So, we tried a third room (supposedly one of the nicer rooms). It was a little better, but was still dirty, holes in the curtains, and the smoke detector didn't work. Even if it was dead batteries, there's no excuse. People's lives depend on that LITTLE thing. So, I requested yet a different room. . they said they did not have one available. So, needless to say, I  requested a refund on the room from hotels.com,  and found one on my own.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1762,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1794,4836 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s">
+        <v>214</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>183</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>226</v>
+      </c>
+      <c r="X31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>225</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>231</v>
+      </c>
+      <c r="X32" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>235</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>183</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>239</v>
+      </c>
+      <c r="J35" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>241</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K36" t="s">
+        <v>245</v>
+      </c>
+      <c r="L36" t="s">
+        <v>246</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>255</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>255</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>260</v>
+      </c>
+      <c r="J40" t="s">
+        <v>261</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>266</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>268</v>
+      </c>
+      <c r="J42" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>266</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>270</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>271</v>
+      </c>
+      <c r="J43" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>266</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>272</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>273</v>
+      </c>
+      <c r="J44" t="s">
+        <v>274</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>275</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>276</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>277</v>
+      </c>
+      <c r="J45" t="s">
+        <v>278</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>275</v>
+      </c>
+      <c r="O45" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>280</v>
+      </c>
+      <c r="J46" t="s">
+        <v>281</v>
+      </c>
+      <c r="K46" t="s">
+        <v>282</v>
+      </c>
+      <c r="L46" t="s">
+        <v>283</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>275</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>286</v>
+      </c>
+      <c r="J47" t="s">
+        <v>287</v>
+      </c>
+      <c r="K47" t="s">
+        <v>288</v>
+      </c>
+      <c r="L47" t="s">
+        <v>289</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>275</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>290</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>291</v>
+      </c>
+      <c r="J48" t="s">
+        <v>292</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>275</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>294</v>
+      </c>
+      <c r="J49" t="s">
+        <v>295</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>275</v>
+      </c>
+      <c r="O49" t="s">
+        <v>95</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>297</v>
+      </c>
+      <c r="J50" t="s">
+        <v>298</v>
+      </c>
+      <c r="K50" t="s">
+        <v>299</v>
+      </c>
+      <c r="L50" t="s">
+        <v>300</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>301</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>302</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>303</v>
+      </c>
+      <c r="J51" t="s">
+        <v>304</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>305</v>
+      </c>
+      <c r="O51" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>307</v>
+      </c>
+      <c r="J52" t="s">
+        <v>308</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>305</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>309</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>310</v>
+      </c>
+      <c r="J53" t="s">
+        <v>311</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>312</v>
+      </c>
+      <c r="O53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>314</v>
+      </c>
+      <c r="J54" t="s">
+        <v>315</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>312</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>316</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>317</v>
+      </c>
+      <c r="J55" t="s">
+        <v>318</v>
+      </c>
+      <c r="K55" t="s">
+        <v>319</v>
+      </c>
+      <c r="L55" t="s">
+        <v>320</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>321</v>
+      </c>
+      <c r="O55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>323</v>
+      </c>
+      <c r="J56" t="s">
+        <v>324</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>183</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>321</v>
+      </c>
+      <c r="O56" t="s">
+        <v>68</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>325</v>
+      </c>
+      <c r="X56" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>327</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>328</v>
+      </c>
+      <c r="J57" t="s">
+        <v>329</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>183</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>321</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>325</v>
+      </c>
+      <c r="X57" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>330</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>331</v>
+      </c>
+      <c r="J58" t="s">
+        <v>332</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s">
+        <v>183</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>321</v>
+      </c>
+      <c r="O58" t="s">
+        <v>95</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>325</v>
+      </c>
+      <c r="X58" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>333</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>334</v>
+      </c>
+      <c r="J59" t="s">
+        <v>335</v>
+      </c>
+      <c r="K59" t="s">
+        <v>336</v>
+      </c>
+      <c r="L59" t="s">
+        <v>337</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>338</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>339</v>
+      </c>
+      <c r="X59" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>342</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" t="s">
+        <v>344</v>
+      </c>
+      <c r="K60" t="s">
+        <v>345</v>
+      </c>
+      <c r="L60" t="s">
+        <v>346</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>338</v>
+      </c>
+      <c r="O60" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>339</v>
+      </c>
+      <c r="X60" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>348</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>349</v>
+      </c>
+      <c r="J61" t="s">
+        <v>350</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s">
+        <v>183</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>338</v>
+      </c>
+      <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>339</v>
+      </c>
+      <c r="X61" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>351</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>352</v>
+      </c>
+      <c r="J62" t="s">
+        <v>353</v>
+      </c>
+      <c r="K62" t="s">
+        <v>354</v>
+      </c>
+      <c r="L62" t="s">
+        <v>355</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>356</v>
+      </c>
+      <c r="O62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>357</v>
+      </c>
+      <c r="X62" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>360</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>361</v>
+      </c>
+      <c r="J63" t="s">
+        <v>362</v>
+      </c>
+      <c r="K63" t="s">
+        <v>363</v>
+      </c>
+      <c r="L63" t="s">
+        <v>364</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>356</v>
+      </c>
+      <c r="O63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>357</v>
+      </c>
+      <c r="X63" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>367</v>
+      </c>
+      <c r="J64" t="s">
+        <v>368</v>
+      </c>
+      <c r="K64" t="s">
+        <v>369</v>
+      </c>
+      <c r="L64" t="s">
+        <v>370</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>371</v>
+      </c>
+      <c r="O64" t="s">
+        <v>125</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>373</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>374</v>
+      </c>
+      <c r="J65" t="s">
+        <v>375</v>
+      </c>
+      <c r="K65" t="s">
+        <v>376</v>
+      </c>
+      <c r="L65" t="s">
+        <v>377</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>378</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>379</v>
+      </c>
+      <c r="J66" t="s">
+        <v>380</v>
+      </c>
+      <c r="K66" t="s">
+        <v>381</v>
+      </c>
+      <c r="L66" t="s">
+        <v>382</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>383</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>384</v>
+      </c>
+      <c r="J67" t="s">
+        <v>385</v>
+      </c>
+      <c r="K67" t="s">
+        <v>386</v>
+      </c>
+      <c r="L67" t="s">
+        <v>387</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>388</v>
+      </c>
+      <c r="O67" t="s">
+        <v>68</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>390</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>391</v>
+      </c>
+      <c r="J68" t="s">
+        <v>392</v>
+      </c>
+      <c r="K68" t="s">
+        <v>393</v>
+      </c>
+      <c r="L68" t="s">
+        <v>394</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>395</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>397</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>398</v>
+      </c>
+      <c r="J69" t="s">
+        <v>399</v>
+      </c>
+      <c r="K69" t="s">
+        <v>400</v>
+      </c>
+      <c r="L69" t="s">
+        <v>401</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>402</v>
+      </c>
+      <c r="O69" t="s">
+        <v>95</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>404</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>405</v>
+      </c>
+      <c r="J70" t="s">
+        <v>406</v>
+      </c>
+      <c r="K70" t="s">
+        <v>407</v>
+      </c>
+      <c r="L70" t="s">
+        <v>408</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>409</v>
+      </c>
+      <c r="O70" t="s">
+        <v>68</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>411</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>412</v>
+      </c>
+      <c r="J71" t="s">
+        <v>413</v>
+      </c>
+      <c r="K71" t="s">
+        <v>414</v>
+      </c>
+      <c r="L71" t="s">
+        <v>415</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>416</v>
+      </c>
+      <c r="O71" t="s">
+        <v>125</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>417</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>418</v>
+      </c>
+      <c r="J72" t="s">
+        <v>419</v>
+      </c>
+      <c r="K72" t="s">
+        <v>420</v>
+      </c>
+      <c r="L72" t="s">
+        <v>421</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>422</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>423</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>424</v>
+      </c>
+      <c r="J73" t="s">
+        <v>425</v>
+      </c>
+      <c r="K73" t="s">
+        <v>426</v>
+      </c>
+      <c r="L73" t="s">
+        <v>427</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>428</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>430</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>431</v>
+      </c>
+      <c r="J74" t="s">
+        <v>432</v>
+      </c>
+      <c r="K74" t="s">
+        <v>433</v>
+      </c>
+      <c r="L74" t="s">
+        <v>434</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>435</v>
+      </c>
+      <c r="O74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>436</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>437</v>
+      </c>
+      <c r="J75" t="s">
+        <v>438</v>
+      </c>
+      <c r="K75" t="s">
+        <v>439</v>
+      </c>
+      <c r="L75" t="s">
+        <v>440</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>441</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>443</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>444</v>
+      </c>
+      <c r="J76" t="s">
+        <v>445</v>
+      </c>
+      <c r="K76" t="s">
+        <v>446</v>
+      </c>
+      <c r="L76" t="s">
+        <v>447</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_239.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_239.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="720">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r613662415-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>83044</t>
+  </si>
+  <si>
+    <t>613662415</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>Disabled and put on 2nd floor without elevator.Requested non-smoking I have lung problems, and baby with us. We got a smoking room.No parking anywhere near our door. Maybe 6 spots total on this wing of building by office.Very expensive.Never again.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r594672987-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>594672987</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Stay away!!!</t>
+  </si>
+  <si>
+    <t>Found this hotel while searching for a place in Denver for the night before an early morning flight. Hard to find a hotel for under $100, this ended up being $103. When we arrived they said their credit card system was down and made us pay cash for the room. The room was old and warn, broken phone. bathroom had not been updated since the 60s. This place is a rip off for $103 there has to be something much better in Denver.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r588622735-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>588622735</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Best  comfort bed ever</t>
+  </si>
+  <si>
+    <t>The bed in room 205 was exceptionally comfortable, with soft pillows to complement the comfy mattress. No complaints regarding a sound nights sleep. The room is showing it’s age and is in need of an update, for example the carpets aren’t good and the fittings are shabby. The connecting door had a hole in it and was stuffed with a plastic cup.however these things are cosmetic and can be fixed easily. Overall best bed for comfort!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r587465907-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>83044</t>
-  </si>
-  <si>
     <t>587465907</t>
   </si>
   <si>
@@ -174,12 +231,6 @@
     <t>We stayed in the hotel because a family member was staying there and we stayed there also since we live in Kansas. We booked 2 rooms for 2 nights and the prices were really high. Once we got to the room the walls were really dirty,the bathroom sink was broken, and it was just terrible. The other room was the same but not with so many difficulties. The nrxt time we went there we asked them if they were going to clean our rooms anytime soon becuase we had been staying there for 4 days and they told us to do it ourselves. Kind of ridcuolus if you ask me. Never staying there again.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We stayed in the hotel because a family member was staying there and we stayed there also since we live in Kansas. We booked 2 rooms for 2 nights and the prices were really high. Once we got to the room the walls were really dirty,the bathroom sink was broken, and it was just terrible. The other room was the same but not with so many difficulties. The nrxt time we went there we asked them if they were going to clean our rooms anytime soon becuase we had been staying there for 4 days and they told us to do it ourselves. Kind of ridcuolus if you ask me. Never staying there again.More</t>
   </si>
   <si>
@@ -201,9 +252,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r569003654-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -225,6 +273,42 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r555678983-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>555678983</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>We booked through hotels.com and got the rate for prepaying with no chance of a cancellation.  My card was never charged and I never got an email confirmation from hotels.com.  When we arrived at the hotel I was charged for 1 night and had to tell them that I had 2 nights reserved.  Then they over-charged me for the second night and I'm still waiting for the credit back.  The hotel was not clean.  Room #1 was outdated and halfway clean but we couldn't get a key for it as the door handle was off another door.  So they moved us to room #2 that was dirty, had tiles coming off the floor in the bathroom but we could get a key for.  I wouldn't sleep there so they moved us to room #3.  Room #3 was much like room #1, again halfway clean, outdated, and they still couldn't get us a key for it.  We gave up at this point and told them they'd have to let us into the room each time.  Supposedly they were working on updating the hotel.  Then they should stop renting out the crap rooms.  We will never go back.  It was horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We booked through hotels.com and got the rate for prepaying with no chance of a cancellation.  My card was never charged and I never got an email confirmation from hotels.com.  When we arrived at the hotel I was charged for 1 night and had to tell them that I had 2 nights reserved.  Then they over-charged me for the second night and I'm still waiting for the credit back.  The hotel was not clean.  Room #1 was outdated and halfway clean but we couldn't get a key for it as the door handle was off another door.  So they moved us to room #2 that was dirty, had tiles coming off the floor in the bathroom but we could get a key for.  I wouldn't sleep there so they moved us to room #3.  Room #3 was much like room #1, again halfway clean, outdated, and they still couldn't get us a key for it.  We gave up at this point and told them they'd have to let us into the room each time.  Supposedly they were working on updating the hotel.  Then they should stop renting out the crap rooms.  We will never go back.  It was horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r530787937-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>530787937</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>We nearly died from the smell</t>
+  </si>
+  <si>
+    <t>A friend booked and we did not bother to check reviews. Haha! When we entered the room it smelled like a skunk had died there and they tried to cover it up with air freshener. We tried to open the window but it was broken. We tried to open the door but the handle came off and we took a while to reattach it to get out. We asked for another room which smelled better and had a clean bathroom. However the room including bedsheets and were filthy. We did not use much of the covers. We did not really sleep! It was a pure nightmare.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r515534753-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -285,6 +369,51 @@
     <t>If you're looking for the absolute worst motel experience possible, look no further than Traveler Inn on Federal. The facility is disgusting, with stains and unpleasant smells everywhere. No elevators. Soda machines from the 80s that were predictably out of order. Random trash outside in the grass. In our room, the main light switch didn't work. Cigarette smell even though it was a non smoking room. The bathroom door didn't close. The lamp shade was tattered and stained. Something with a dozen screws had been pulled out of the wall and never filled or repainted. Mold in the shower and behind the toilet. Stains and rust in the sink. I could go on, but I'm literally gagging remembering it all. Take a look at my photos for a good time. This is by far the dirtiest, sketchiest motel I have ever stayed in. You've been warned.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r440499286-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>440499286</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Absolutely not!!</t>
+  </si>
+  <si>
+    <t>This place is awful!! If I could give negative rating I would. Not at all like the pictures. Dirty, burn holes in bedding, stains everywhere,smelled bad. Guy at desk said as long as you weren't into heavy drugs it be ok!  We weren't even in the room for 5 minutes before leaving. They only gave us 1/2 our money back.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r427447339-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>427447339</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>No, no, no!</t>
+  </si>
+  <si>
+    <t>The first night we stayed we went into the double bed room to find out that some of the light switches didn't even work. There were stains on the floor and burn holes in the comforters. Also there was no toilet paper. So when we went to the front desk for some they didn't have any and never brought any up like  they said they would. On one of the beds, a piece of metal bed frame was sticking out about a foot and managed to scratch all of us. The 2nd night it was the only motel available in the area so we had to settle with it. They had checked us into a room that hadn't been cleaned. Front desk apologized saying that housekeeping must have skipped it, but were supposed to clean it. We finally got into another room and this one was a bit nicer but had even more stains on the floor.The bathrooms are disgusting too.Plus side of this motel is that it is pet friendly. Probably won't stay again and will not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>The first night we stayed we went into the double bed room to find out that some of the light switches didn't even work. There were stains on the floor and burn holes in the comforters. Also there was no toilet paper. So when we went to the front desk for some they didn't have any and never brought any up like  they said they would. On one of the beds, a piece of metal bed frame was sticking out about a foot and managed to scratch all of us. The 2nd night it was the only motel available in the area so we had to settle with it. They had checked us into a room that hadn't been cleaned. Front desk apologized saying that housekeeping must have skipped it, but were supposed to clean it. We finally got into another room and this one was a bit nicer but had even more stains on the floor.The bathrooms are disgusting too.Plus side of this motel is that it is pet friendly. Probably won't stay again and will not recommend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r416667318-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -354,6 +483,45 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r387458560-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>387458560</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>I booked a room at the Traveler Inn through Expedia and was extremely disappointed. First of all, the pictures of the hotel are not accurate at all. Right off the bat, the front desk area where you check in looked old, dingy, and had a weird musty smell to it and had me thinking the place was a dump already. The hallways to the rooms aren't any better. Old, dirty, musty carpet, walls that appear to have had the trim torn off at the bottom but not replaced. Literally looks like nothing has been repaired or replaced since the 80's. When walking into the hotel room, the first thing my boyfriend and I noticed was the smell. It smelled extremely musty and old. The next thing we noticed were the really large stains all over the carpets throughout the room. Again, these carpets appear to have not been replaced for decades. Third thing we noticed, when trying to open the window to get rid of the stench, was that the screen was all bent and not even attached to the window, allowing whatever and whoever to come in if we had left the window open while gone. We could, however, tell that the room had been cleaned after the last guest (at least they are doing something they are supposed to do). The bed was decent, sheets were clean. The AC worked well, although it was loud. The bathroom was...I booked a room at the Traveler Inn through Expedia and was extremely disappointed. First of all, the pictures of the hotel are not accurate at all. Right off the bat, the front desk area where you check in looked old, dingy, and had a weird musty smell to it and had me thinking the place was a dump already. The hallways to the rooms aren't any better. Old, dirty, musty carpet, walls that appear to have had the trim torn off at the bottom but not replaced. Literally looks like nothing has been repaired or replaced since the 80's. When walking into the hotel room, the first thing my boyfriend and I noticed was the smell. It smelled extremely musty and old. The next thing we noticed were the really large stains all over the carpets throughout the room. Again, these carpets appear to have not been replaced for decades. Third thing we noticed, when trying to open the window to get rid of the stench, was that the screen was all bent and not even attached to the window, allowing whatever and whoever to come in if we had left the window open while gone. We could, however, tell that the room had been cleaned after the last guest (at least they are doing something they are supposed to do). The bed was decent, sheets were clean. The AC worked well, although it was loud. The bathroom was also decent. Definitely nothing too nice, but had been cleaned and was not as gross as the rest of the room/hotel. All in all, I would not recommend staying here. Spend a little extra money and stay somewhere better. Honestly, you'd be better at the motel 6 nearby and that might actually be cheaper. The traveler inn charging $84 for a night is a total rip off. For what they are offering, a price of $40-$50 a night might make it more acceptable. Basically, I think anywhere within a similar price range would be better than this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room at the Traveler Inn through Expedia and was extremely disappointed. First of all, the pictures of the hotel are not accurate at all. Right off the bat, the front desk area where you check in looked old, dingy, and had a weird musty smell to it and had me thinking the place was a dump already. The hallways to the rooms aren't any better. Old, dirty, musty carpet, walls that appear to have had the trim torn off at the bottom but not replaced. Literally looks like nothing has been repaired or replaced since the 80's. When walking into the hotel room, the first thing my boyfriend and I noticed was the smell. It smelled extremely musty and old. The next thing we noticed were the really large stains all over the carpets throughout the room. Again, these carpets appear to have not been replaced for decades. Third thing we noticed, when trying to open the window to get rid of the stench, was that the screen was all bent and not even attached to the window, allowing whatever and whoever to come in if we had left the window open while gone. We could, however, tell that the room had been cleaned after the last guest (at least they are doing something they are supposed to do). The bed was decent, sheets were clean. The AC worked well, although it was loud. The bathroom was...I booked a room at the Traveler Inn through Expedia and was extremely disappointed. First of all, the pictures of the hotel are not accurate at all. Right off the bat, the front desk area where you check in looked old, dingy, and had a weird musty smell to it and had me thinking the place was a dump already. The hallways to the rooms aren't any better. Old, dirty, musty carpet, walls that appear to have had the trim torn off at the bottom but not replaced. Literally looks like nothing has been repaired or replaced since the 80's. When walking into the hotel room, the first thing my boyfriend and I noticed was the smell. It smelled extremely musty and old. The next thing we noticed were the really large stains all over the carpets throughout the room. Again, these carpets appear to have not been replaced for decades. Third thing we noticed, when trying to open the window to get rid of the stench, was that the screen was all bent and not even attached to the window, allowing whatever and whoever to come in if we had left the window open while gone. We could, however, tell that the room had been cleaned after the last guest (at least they are doing something they are supposed to do). The bed was decent, sheets were clean. The AC worked well, although it was loud. The bathroom was also decent. Definitely nothing too nice, but had been cleaned and was not as gross as the rest of the room/hotel. All in all, I would not recommend staying here. Spend a little extra money and stay somewhere better. Honestly, you'd be better at the motel 6 nearby and that might actually be cheaper. The traveler inn charging $84 for a night is a total rip off. For what they are offering, a price of $40-$50 a night might make it more acceptable. Basically, I think anywhere within a similar price range would be better than this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r372839573-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>372839573</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Disgusting and very rude morning Staff</t>
+  </si>
+  <si>
+    <t>My family and I are on an emergency relocation due to Domestic Violence. I am a disabled adult and we were vouchered here by the state of Colorado for 3 nights. My adult daughter went to re-sign to voucher this morning as her name is on it and was told by morning staff that I had to be the one to do it because they prefer the same person to sign however it is not mandatory.When I attempted to explain that I am physically disabled and a victim of DV she became very rude and accused me of having an attitude...we were threatened with being kicked out.We have traveled here with both of my very young grandsons as well. I asked her who her supervisor was and she stated she had none. After she plugged in her iPhone to video despite the more than  ample surveillance in the office she then disclosed to me the name of her immediate supervisor.This place IS NOT DISABLED, FAMILY, OR VICTIM FRIENDLY and engage in abusive behavior to people in actual need of assistance.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>My family and I are on an emergency relocation due to Domestic Violence. I am a disabled adult and we were vouchered here by the state of Colorado for 3 nights. My adult daughter went to re-sign to voucher this morning as her name is on it and was told by morning staff that I had to be the one to do it because they prefer the same person to sign however it is not mandatory.When I attempted to explain that I am physically disabled and a victim of DV she became very rude and accused me of having an attitude...we were threatened with being kicked out.We have traveled here with both of my very young grandsons as well. I asked her who her supervisor was and she stated she had none. After she plugged in her iPhone to video despite the more than  ample surveillance in the office she then disclosed to me the name of her immediate supervisor.This place IS NOT DISABLED, FAMILY, OR VICTIM FRIENDLY and engage in abusive behavior to people in actual need of assistance.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r317206661-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -414,6 +582,39 @@
     <t>The most nasty hotel I ever stood in full of junkies Crack heads and gang bangers noise all night by unattended kids it shows a pic of a nice pool and nice rooms all false the pool is full of weeds and dirty syringes no water the court yard had weeds growing 3 feet tall they had furniture in the parking lot parking spots and the cops were there at least 3 times a day and once for a child locked in the car in 90° temperature if u are a decent working class looking for a decent place do not use the traveler inn Denver it's over run by junkies and gang bangers More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r292103095-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>292103095</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Horrible hotel for Hj</t>
+  </si>
+  <si>
+    <t>Hotel was run down, dirty, no pool and the Employees are not nice or helpful. Key locked out twice ! The pictures are outdated and the rooms were discusting! Do not stay here !!! Very disappointing for the Denver area</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r291074443-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>291074443</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>This is a reasonably priced hotel. It is an easy on and off from the interstate. The desk staff was professional and courteous. The room was neat and clean and had a microwave and refrigerator. The bed was comfortable. The breakfast was excellent and well stocked. The only complaint I had was that there was no elevator but like most hotels with no elevator they try to give a ground floor room. This means a lot to senior citizens.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r287860124-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -429,9 +630,6 @@
     <t>After traveling 70 miles looking for a room we finally found a vacant.  Really over priced for the quality of hotel.  But it was a place to get some z's and take a shower.The hotel was not well maintained although it looked like they were doing some updates.  Hopefully!!!</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r269416387-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -468,6 +666,48 @@
     <t>After my friend was told that a 2 king sized beds in a room would be available for us (at 4 in the morning) for $63 through Expedia, we thought what a great deal! After the hotel clerk at the front office said that Expedia needed to fax him information and then there was a problem with the fax, I was exhausted and decided to pay for the room. Not only were we misinformed about the room (it was 2 FULL sized beds) and the price the clerk told my friend-he was told $78-and i was CHARGED $84 (plus tax total $94.67). I was disappointed that there was no breakfast snacks in the morning much less even coffee! Another set of friends got a room there too-we were all tired-and they had no electricity in half of their room and Howard Johnson materials throughout the room. When my friends called the toll free line, they said they didn't have a hotel where we were located at. Bottom line, if you have cash to burn and waste and are dead tired, then go ahead and waste it here. Poor customer service, shady managerial skills and just bad over all.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r254907000-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>254907000</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>crack pipes in the coffee maker.....</t>
+  </si>
+  <si>
+    <t>This hotel is A JOKE. first off our door lock was busted upon check in, which we were told by employee MATT that it would be fixed by the next morning by their maintenance man. Only to be told next morning by a different atendee that there was no maintenance man. Ice machine is broken. Hot tub room closed for no good reason. Lounge is locked closed. Restaurant is never open. the carpet between the bathroom is ripped exposing tack board and stabs your feet. The biggest issue is though, I requested a coffee maker like it says their should be in every room. When i finally got my coffee maker brought to my room, a Meth pipe and an empty baggie fell out of the coffee maker. you heard me. a meth pipe.this is outrageous situation to put a recovering addict in. I was told management would be here to deal with my problem in the morning. just another LIEMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>This hotel is A JOKE. first off our door lock was busted upon check in, which we were told by employee MATT that it would be fixed by the next morning by their maintenance man. Only to be told next morning by a different atendee that there was no maintenance man. Ice machine is broken. Hot tub room closed for no good reason. Lounge is locked closed. Restaurant is never open. the carpet between the bathroom is ripped exposing tack board and stabs your feet. The biggest issue is though, I requested a coffee maker like it says their should be in every room. When i finally got my coffee maker brought to my room, a Meth pipe and an empty baggie fell out of the coffee maker. you heard me. a meth pipe.this is outrageous situation to put a recovering addict in. I was told management would be here to deal with my problem in the morning. just another LIEMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r237908496-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>237908496</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Howard Johnson's? NO!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Howard Johnson in Denver Colorado last week and it was the worst experience ever! I will NEVER stay at another Howard Johnson again! The carpets were DISGUSTING the chair at our desk was stained and nasty te bathrooms were dirty with hair everywhere and spiders in the room.  The windows opened but no screen and the security was terrible we were afraid to even leave luggage in the room when we went to have dinner.  The beds were uncomfortable and if my husband barely moved the bed shook like we were in an earthquake they were completely uncomfortable. We actually paid for two nights and it was such a horrible experience that the next morning we left and booked into a different hotel.  I honestly would not even give it a half of a star. TERRIBLE! TERRIBLE! TERRIBLE! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Howard Johnson in Denver Colorado last week and it was the worst experience ever! I will NEVER stay at another Howard Johnson again! The carpets were DISGUSTING the chair at our desk was stained and nasty te bathrooms were dirty with hair everywhere and spiders in the room.  The windows opened but no screen and the security was terrible we were afraid to even leave luggage in the room when we went to have dinner.  The beds were uncomfortable and if my husband barely moved the bed shook like we were in an earthquake they were completely uncomfortable. We actually paid for two nights and it was such a horrible experience that the next morning we left and booked into a different hotel.  I honestly would not even give it a half of a star. TERRIBLE! TERRIBLE! TERRIBLE! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r235889931-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -483,9 +723,6 @@
     <t xml:space="preserve">Your Review      The hotel was a good value. We did have cobwebs on the ceiling, but the bathroom was clean. There was rarely coffee available in the morning and we didn't have a coffee maker in our room. We bought coffee at the gas station next door. Everyone who worked at the hotel was friendly and professional.  For what we paid it was a great value! </t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r233381435-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -507,6 +744,45 @@
     <t>233363613</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r232318485-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>232318485</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>WHAT A DUMP!</t>
+  </si>
+  <si>
+    <t>We thought Howard Johnson was a very good chain -- were we ever WRONG! This place is NOT even 'fair', it is "TERRIBLE"!  The smell in the hall AND room was musty and disgusting. The chairs are so dirty, they look like someone peed in them... or worse! The carpet is FILTHY, my white stockings were BLACK after just a few steps across the floor ! Good thing I had a large can of Lysol, I sprayed down EVERYTHING! A large amount of hair in the drain of the tub looked so gross we did not take showers. The sink had rust in it. The paint was chipping off the ceiling. Walls were dirty.  We requested extra towels so we had some to use so we could sit in the chairs!There were ONLY two good things: The towels &amp; washrags were pretty nice; Breakfast was served till 10:00. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We thought Howard Johnson was a very good chain -- were we ever WRONG! This place is NOT even 'fair', it is "TERRIBLE"!  The smell in the hall AND room was musty and disgusting. The chairs are so dirty, they look like someone peed in them... or worse! The carpet is FILTHY, my white stockings were BLACK after just a few steps across the floor ! Good thing I had a large can of Lysol, I sprayed down EVERYTHING! A large amount of hair in the drain of the tub looked so gross we did not take showers. The sink had rust in it. The paint was chipping off the ceiling. Walls were dirty.  We requested extra towels so we had some to use so we could sit in the chairs!There were ONLY two good things: The towels &amp; washrags were pretty nice; Breakfast was served till 10:00. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r230729610-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>230729610</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>The place is a FESTERING DUMP!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>DO NOT, under any circumstance, stay here! The ONLY positive thing I can say about it is that it's near a highway to get the hell outta there! Lets see...black mold in the bathroom, filth on every wall, every surface that was upholstered was stained, the rusty fixtures, and, the cherry on top; a spider repelling from one of the shelves in the fridge. I think it was even squealing, "Wheeeeeeeee!". Should have known this place was horrific by the first impression when we got out of the car. HOW the outdoors of a place can smell like a urinal is beyond me. That should have been our first clue as to the interior of the place. So, we called corporate and were met with "What would you like us to do about it?" I dunno...how about bulldoze the place? They should be embarrassed their name's on that festering, infected ulcer of a "hotel".MoreShow less</t>
+  </si>
+  <si>
+    <t>DO NOT, under any circumstance, stay here! The ONLY positive thing I can say about it is that it's near a highway to get the hell outta there! Lets see...black mold in the bathroom, filth on every wall, every surface that was upholstered was stained, the rusty fixtures, and, the cherry on top; a spider repelling from one of the shelves in the fridge. I think it was even squealing, "Wheeeeeeeee!". Should have known this place was horrific by the first impression when we got out of the car. HOW the outdoors of a place can smell like a urinal is beyond me. That should have been our first clue as to the interior of the place. So, we called corporate and were met with "What would you like us to do about it?" I dunno...how about bulldoze the place? They should be embarrassed their name's on that festering, infected ulcer of a "hotel".More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r229304740-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -522,9 +798,6 @@
     <t>Folks, this is a really good central location in Denver and the folks working at the hotel seem to try really hard.  Unfortunately, whoever owns it should be chastised for bringing shame to the Howard Johnson brand.  If the maids can work hard cleaning and the front desk people can be friendly, the least the owner could do is hire a maintenance engineer or 4 to fix all the problems.  I do not want to ancient furniture that is well over 20 years old and looked like crap when it was new.  I do not want to see holes in the tub and missing grout   throughout the bathroom.  I would like some of the lights to work and I darn well do want the promised Wi Fi service.  There were multiple guests discussing this problem. Howard Johnson management, are you listening?  MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>Folks, this is a really good central location in Denver and the folks working at the hotel seem to try really hard.  Unfortunately, whoever owns it should be chastised for bringing shame to the Howard Johnson brand.  If the maids can work hard cleaning and the front desk people can be friendly, the least the owner could do is hire a maintenance engineer or 4 to fix all the problems.  I do not want to ancient furniture that is well over 20 years old and looked like crap when it was new.  I do not want to see holes in the tub and missing grout   throughout the bathroom.  I would like some of the lights to work and I darn well do want the promised Wi Fi service.  There were multiple guests discussing this problem. Howard Johnson management, are you listening?  More</t>
   </si>
   <si>
@@ -558,6 +831,24 @@
     <t>I had booked this trip for my co worker. He came into town late, and needed a place to stay for 3 days. I booked this hotel stay three days in advance. When he showed up to the hotel, they told him there was no reservation. I found out the next day. and called the reservation line with my confirmation number, and I was told it had been cancelled. We had no warning of this, they could not tell me who cancelled the reservation, and our employee was without a room for the night. We are VERY unimpressed with Wyndam and Howard Johnson, and will do everything we can to make sure no one uses this company, or stays at this disgusting hotel. Maybe things would not mess up, if you kept customer service in America, with Americans. People speaking clear and concise English. We are still quite peeved that no one was able to tell us who cancelled this reservation, and why? We will never use this brand again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r228525891-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>228525891</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r227817328-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>227817328</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r225584399-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -603,6 +894,21 @@
     <t>This hotel is located at exit 272 on Federal Blvd and just off of I-70 so access is very easy and there is plenty of parking.  If you stop at a gas station or a rest area, you should be able to get a book of coupons which has this hotel at $50.  The hallway was a little rough, but room was good.  King size bed, ref, large TV and desk with good WiFi signal.  Breakfast was okay, but the day I was there they allowed a male guest to be in there without his shirt which was not very appetizing.  There are many restaurants within walking distance.  For me the best thing about staying here was that about 2 blocks behind the hotel there is a nice park and lake with a walking path around it.  A great place to hike after a day of driving and if traveling with kids there is a nice playground.  This alone makes this a great place to stay.  I will stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r224647460-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>224647460</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r222929547-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>222929547</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r221758059-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -648,6 +954,33 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r219040947-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>219040947</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r217626502-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>217626502</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not go here! </t>
+  </si>
+  <si>
+    <t>I usually don't write bad reviews and we are usually very lucky in finding good places to stay and eat while on vacation but I have to write this negative review about Howard Johnson 's.  This place was so bad that we left. First: I requested a non smoking room and they stuck us in a smoking room. I have allergies to cigarette smoke. When we asked for a non smoking room they said none were available. Asked for a refund and they refused to give it to us. The room was run down, the walls were splattered with who knows what, the carpet was sticky, only 1 outlet worked, tiles missing in the bathroom and there was mildew. When I booked it online, it said the rooms were remodeled and upgraded. .. This was NOT true. Also, we didn't feel safe here and I was afraid my car would get broken into.  Ended up driving into the night and sleeping a little at a wayside rest. I was forced to give a star on here but it doesn't even deserve one! MoreShow less</t>
+  </si>
+  <si>
+    <t>I usually don't write bad reviews and we are usually very lucky in finding good places to stay and eat while on vacation but I have to write this negative review about Howard Johnson 's.  This place was so bad that we left. First: I requested a non smoking room and they stuck us in a smoking room. I have allergies to cigarette smoke. When we asked for a non smoking room they said none were available. Asked for a refund and they refused to give it to us. The room was run down, the walls were splattered with who knows what, the carpet was sticky, only 1 outlet worked, tiles missing in the bathroom and there was mildew. When I booked it online, it said the rooms were remodeled and upgraded. .. This was NOT true. Also, we didn't feel safe here and I was afraid my car would get broken into.  Ended up driving into the night and sleeping a little at a wayside rest. I was forced to give a star on here but it doesn't even deserve one! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r216304528-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -702,6 +1035,33 @@
     <t>Responded June 7, 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r208335041-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>208335041</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r207405648-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>207405648</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>DISGUSTING AND SHOULD BE CLOSED</t>
+  </si>
+  <si>
+    <t>I stayed here for a few hours because i could not take no more. I walked in room and there were stains down the wall and behind the bed on the wall. The phone had so much dirt on it i could not punch the buttons. I went into the bathroom and the wood behind the sink faucets was water logged and there was something growing out of a hole there also. I took pictures of the filth. Spoke to management and he said he can not do anything but will give me 20% off if i return again. I said i will never come within 20 feet of the place. I filed a complaint with the health dept. This hotel should be torn down. They charged me for 2 people and only one person was registered.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a few hours because i could not take no more. I walked in room and there were stains down the wall and behind the bed on the wall. The phone had so much dirt on it i could not punch the buttons. I went into the bathroom and the wood behind the sink faucets was water logged and there was something growing out of a hole there also. I took pictures of the filth. Spoke to management and he said he can not do anything but will give me 20% off if i return again. I said i will never come within 20 feet of the place. I filed a complaint with the health dept. This hotel should be torn down. They charged me for 2 people and only one person was registered.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r204361048-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -732,6 +1092,36 @@
     <t>204125718</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r201595611-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>201595611</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>I should have stayed somewhere else</t>
+  </si>
+  <si>
+    <t>I feel first impressions count. That said, we walked into the lobby to register and the place smelled like an ashtray. The facility is unkept. It's very dingy and in need of a paint job. When we entered the building where our room was in, it smelled moldy. This was was really scary to me. We tried to get our money back, but they refused, so we had to stay there. So, we went inside the room and at first glance it looked clean, but upon taking a closer look, it was dusty. Basically, I slept on top of the sheets and blanket for fear of unclean sheets. I was glad to be out of there. Never again will I trust the name Howard Johnson's MoreShow less</t>
+  </si>
+  <si>
+    <t>I feel first impressions count. That said, we walked into the lobby to register and the place smelled like an ashtray. The facility is unkept. It's very dingy and in need of a paint job. When we entered the building where our room was in, it smelled moldy. This was was really scary to me. We tried to get our money back, but they refused, so we had to stay there. So, we went inside the room and at first glance it looked clean, but upon taking a closer look, it was dusty. Basically, I slept on top of the sheets and blanket for fear of unclean sheets. I was glad to be out of there. Never again will I trust the name Howard Johnson's More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r198684635-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>198684635</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r194343558-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -774,6 +1164,30 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r191363884-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>191363884</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r184190631-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>184190631</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>Wow are you kidding me?</t>
+  </si>
+  <si>
+    <t>We were traveling through about midnight, all we wanted was a clean room for 6-8 hours. When we were checking in they insisted I couldn't use my military ID for an ID and then the clerk started to photocopy it. It is a federal offense to photocopy military IDs.  When I asked her to please not she became very rude.  We took our money and drove down the rode.The lobby was dirty and the desk clerk rude. Pass this one up!!#</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r181303203-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -807,6 +1221,30 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r178621117-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>178621117</t>
+  </si>
+  <si>
+    <t>Weekend stay at Howard Johnson's Denver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The building is dated, but the room was fine, everything worked, and the price was very reasonable. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r175537837-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>175537837</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r173953355-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -816,9 +1254,6 @@
     <t>08/25/2013</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r172122359-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -834,6 +1269,42 @@
     <t>172117939</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r171977713-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>171977713</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>The worst hotel I have ever seen</t>
+  </si>
+  <si>
+    <t>I had Wydham Reward points to use and was given this hotel as one to stay in for the Denver area to redeem my points.  Never have I been so disgusted with a hotel.  I NEVER complain about hotels; I am not picky at all and am used to staying in low budget hotels such as the Super 8 or the Motel 6.  However, this hotel was horrifying.  There were holes in the walls, it smelled horrible, there were stains all over the bedspread and the carpet, and worst of all, it was not at all safe!  I was traveling with my two young children, ages 4 and 7, and I did not feel safe enough to stay here.  There were shady characters hanging out in the parking lot eyeing us up, people dragging coolers full of beer into their rooms, my car alarm went off, the lady in the convenience store next door was behind bullet proof glass, etc. etc.  I could go on and on.  Needless to say, I called Wydham Rewards to get my points back and went to the Ramada in a different area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had Wydham Reward points to use and was given this hotel as one to stay in for the Denver area to redeem my points.  Never have I been so disgusted with a hotel.  I NEVER complain about hotels; I am not picky at all and am used to staying in low budget hotels such as the Super 8 or the Motel 6.  However, this hotel was horrifying.  There were holes in the walls, it smelled horrible, there were stains all over the bedspread and the carpet, and worst of all, it was not at all safe!  I was traveling with my two young children, ages 4 and 7, and I did not feel safe enough to stay here.  There were shady characters hanging out in the parking lot eyeing us up, people dragging coolers full of beer into their rooms, my car alarm went off, the lady in the convenience store next door was behind bullet proof glass, etc. etc.  I could go on and on.  Needless to say, I called Wydham Rewards to get my points back and went to the Ramada in a different area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r171797876-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>171797876</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Could be much better</t>
+  </si>
+  <si>
+    <t>The hotel could be something very nice, but it needs to be remodeled! The paint is chipped, the carpet looks dirty, the lobby needs to be cleaned. The room was comfortable but the general aspect of it made us doubt of its cleanliness. The swimming pool was nice, not heated but it was fine in July. The downturn was breakfast. It is in the lobby, small room, not offering much and not refilling on juices, bread or butter and jelly. The area did not look clean, the trash cans were completely full and emptied probably after everyone had breakfast!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r170173362-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -843,9 +1314,6 @@
     <t>07/31/2013</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r169806364-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -873,6 +1341,30 @@
     <t>I knew by the price that it wasn't going to be a great motel/inn, but this was literally the worst motel I have ever stayed in. The neighborhood is sketchy, it is not kept up at all, it is dirty,  and the front desk staff was rude. We booked this hotel through hotels.com and per their website it had a hot tub. It does not. It has what was a hot tub that is now filled in with cement and rock. The outside of the building has graffiti tags with gang names. Our room was disgusting. The phone was missing most of the buttons, there were weird holes in the walls and ceiling, the walls and ceiling were painted but they didn't paint over all of the previous color in some areas, the bathroom floor had not been cleaned, there was mold in the shower and on the bathroom ceiling, the furniture was very beat up, there were initials carved in the drywall in the room. They also serve a continental breakfast from 6:30 to 10:30 am. We went down at 8:45, they were out of milk, juice, bread, and waffle mix. We asked if they were going to put more out, the front desk staff was very rude and hateful and they did not put more breakfast supplies out. We were not the only guests who complained about this. Yuck yuck yuck!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r169178794-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>169178794</t>
+  </si>
+  <si>
+    <t>nightmare on Federal Hwy</t>
+  </si>
+  <si>
+    <t>This was horrific, the call area was dirty to begin with, as we were taking clothes from our suitcases (in our car) a punk drove by staring, the walk to the room was gross, the paint was peeling, dirty walls, carpet, stairwell, air conditioner hasn't worked in forever, it covered in dirt and trash. Once in the room: the ceiling was falling down, batteries was out of the smoke detector, blood on the door frame and bathroom floor. The refridgerator stunk of old rotten food, the microwave had food burnt inside. Mold and mildew was all around the carpet was sticky to walk on and was peeling away from the wall. There were little thugs hanging around the office when we checked out, I conversed with the manager on duty "Deb" and explained the condition she said "well I just work here." Never ever again will I go through hotels.com for any hotel. The only thing going for us was there were not any bed bugs. We still slept in our clothes and shoes on. Just in case we had to run out of the room in the middle of the night. Very surprised our vehicle was still there in the AM. Very distressed over this stay.....MoreShow less</t>
+  </si>
+  <si>
+    <t>This was horrific, the call area was dirty to begin with, as we were taking clothes from our suitcases (in our car) a punk drove by staring, the walk to the room was gross, the paint was peeling, dirty walls, carpet, stairwell, air conditioner hasn't worked in forever, it covered in dirt and trash. Once in the room: the ceiling was falling down, batteries was out of the smoke detector, blood on the door frame and bathroom floor. The refridgerator stunk of old rotten food, the microwave had food burnt inside. Mold and mildew was all around the carpet was sticky to walk on and was peeling away from the wall. There were little thugs hanging around the office when we checked out, I conversed with the manager on duty "Deb" and explained the condition she said "well I just work here." Never ever again will I go through hotels.com for any hotel. The only thing going for us was there were not any bed bugs. We still slept in our clothes and shoes on. Just in case we had to run out of the room in the middle of the night. Very surprised our vehicle was still there in the AM. Very distressed over this stay.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r168771741-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>168771741</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r168567718-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -906,6 +1398,24 @@
     <t>07/07/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r166625842-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>166625842</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r165813660-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>165813660</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r165462150-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -921,9 +1431,6 @@
     <t>My flight was delayed and I missed my connection in Denver so I desperately needed a place to stay. Unfortunately for me this was my only option and it wasnt a good one. No coffee/breakfast available. The shower was so disgusting and unclean that I couldnt shower in it. I had a hard time sleeping the room was just horrid. Would not recommend.</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r162450988-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -945,6 +1452,33 @@
     <t>05/28/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r161880242-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>161880242</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>I had made reservations by phone.  They offered lost of options for discounts on the room.  We arrived and could see the sign for Howard Johnson but no office. We drove around to the end of the building looking for the office.  We saw a couple of groups of people hanging out and talking in loud voices.  Having not found the office, we decided to walk into the builidng.  The carpeting was dark and grimy.  The halls were semi dark.  The doors were tall,and there were hand written signes taped to some of them with do not disturb.  Having walked through the entire property to finally find the office which was back out toward the street.  Once we got into the office, there was somekind of a room deal going on inside, and there were some employees hanging around out side, smoking and carrying on..The office was also dirty,the floor needed to be vacuumed, and dusted.  We walked out, and went around the building back to our car and drove away as fast as we could.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had made reservations by phone.  They offered lost of options for discounts on the room.  We arrived and could see the sign for Howard Johnson but no office. We drove around to the end of the building looking for the office.  We saw a couple of groups of people hanging out and talking in loud voices.  Having not found the office, we decided to walk into the builidng.  The carpeting was dark and grimy.  The halls were semi dark.  The doors were tall,and there were hand written signes taped to some of them with do not disturb.  Having walked through the entire property to finally find the office which was back out toward the street.  Once we got into the office, there was somekind of a room deal going on inside, and there were some employees hanging around out side, smoking and carrying on..The office was also dirty,the floor needed to be vacuumed, and dusted.  We walked out, and went around the building back to our car and drove away as fast as we could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r161805663-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>161805663</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r158950282-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -984,6 +1518,45 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r157105565-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>157105565</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Ben G, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded April 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r156199719-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>156199719</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Do not recommend</t>
+  </si>
+  <si>
+    <t>We had decided to stay there after not being able to find much. After one night we did not stay another. Did not feel safe for a family. Exterior doors did not have any sort of security. It is not kept up at all one of the most run down places I have ever stayed at. I expected more of national chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ben G, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>We had decided to stay there after not being able to find much. After one night we did not stay another. Did not feel safe for a family. Exterior doors did not have any sort of security. It is not kept up at all one of the most run down places I have ever stayed at. I expected more of national chain.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r155514105-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -993,12 +1566,6 @@
     <t>03/24/2013</t>
   </si>
   <si>
-    <t>Ben G, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded April 5, 2013</t>
-  </si>
-  <si>
-    <t>Responded April 5, 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r154810954-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1017,6 +1584,48 @@
     <t>03/06/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r153481805-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>153481805</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Horrible!!!!</t>
+  </si>
+  <si>
+    <t>I checked into the Hotel expecting a Howard Johnson's to be OK. It was disgusting. Holes in the wall, grout and caulking moldy and falling apart. The exterior entry door was broken and askew. And, the non-smoking room wreaked of smoke. As soon as I walked in I walked out and told the managers that I would not be staying in the room and that I needed them to refund my money. They refused... Now understand I walked into the room and out - not even 5 minutes. I still refused to stay there as it is truly disgusting. DO NOT STAY AT THIS PLACE!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I checked into the Hotel expecting a Howard Johnson's to be OK. It was disgusting. Holes in the wall, grout and caulking moldy and falling apart. The exterior entry door was broken and askew. And, the non-smoking room wreaked of smoke. As soon as I walked in I walked out and told the managers that I would not be staying in the room and that I needed them to refund my money. They refused... Now understand I walked into the room and out - not even 5 minutes. I still refused to stay there as it is truly disgusting. DO NOT STAY AT THIS PLACE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r150123136-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>150123136</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Nightmare.... Stay Away.... Health Hazard!!!!</t>
+  </si>
+  <si>
+    <t>This place is DIRTY!!!! We stayed in room 246, and on the second night we noticed blood on the ceiling with what looked like a bullet hole next to it, we decided to flip the mattress after trying to figure out how the blood got there and found a blood body print on the under side of the mattress.... THEY FLIPPED THE MATTRESS AFTER SOMEONE KILLED THEMSELVES IN THAT ROOM AND CALLED IT GOOD!!!! It was horrific. Why own a hotel if your not going to take care of it.... Howard Johnson should really pay more attention to their staff!! They have done nothing till this day to reimburse us for our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>This place is DIRTY!!!! We stayed in room 246, and on the second night we noticed blood on the ceiling with what looked like a bullet hole next to it, we decided to flip the mattress after trying to figure out how the blood got there and found a blood body print on the under side of the mattress.... THEY FLIPPED THE MATTRESS AFTER SOMEONE KILLED THEMSELVES IN THAT ROOM AND CALLED IT GOOD!!!! It was horrific. Why own a hotel if your not going to take care of it.... Howard Johnson should really pay more attention to their staff!! They have done nothing till this day to reimburse us for our stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r144981510-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1071,15 +1680,36 @@
     <t>10/23/2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r143298379-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>143298379</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r142431686-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>142431686</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Ben G, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded October 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r142396506-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
     <t>142396506</t>
   </si>
   <si>
-    <t>10/09/2012</t>
-  </si>
-  <si>
     <t>Night Mare</t>
   </si>
   <si>
@@ -1089,12 +1719,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Ben G, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded October 18, 2012</t>
-  </si>
-  <si>
-    <t>Responded October 18, 2012</t>
-  </si>
-  <si>
     <t>This place should Close down ,The Room had MIldew on the Celing, Spider web every where, The balcony coverd with trash, and Rothing food, Bathroom, Mildew ,Horrifying...I called the Healt Department to report and send lots of Picture for them, I had to go to see Dr, My face swolled up from allergic reaction,,,,,I would not spend $1 to stay in this Hotel,,,I did for $150Stay away from this place that what I can say!!!!!!!!!More</t>
   </si>
   <si>
@@ -1137,6 +1761,54 @@
     <t>Good coupon value stops there. I have stayed at this property over one month over the last 3 while in town. Location is good but the problems are here described accurate not with personal feelings. Bld 1 coupons and full rate over night guests nicest rooms even have hair dryers...bld 2 has weeklys and where I'm staying....bld 3 I have walked thru alleys that felt safer with the drunks, roommate freeway panhandlers coming and going and the bums coming to visit friends thru the back doorway that accesses the park. Recently trash was pilling up daily at the trash cans/ ash trays at entrance ways in the evenings.....the maids empty around 10, so the hotel idea was put notice on every door informing you must now take your trash out to dumpster they're removing trash cans......ha, the lady in her lawn mowing clothes faded black tshirt and black sweats working the front desk is the most pleasnt with her ponied tailed side kick who while having packages delivered by the mailman (something I do near daily) interupted to hastly ask are you staying here with few more comments about my frequent packages to have the mailman turn to me and say why do they act like that.......I explained that is white trash at it's finest.........no its not personal only insightful and revealing......avoid this dump like the trash thrown all around the dumpster not in nor picked up by staff, avoid...Good coupon value stops there. I have stayed at this property over one month over the last 3 while in town. Location is good but the problems are here described accurate not with personal feelings. Bld 1 coupons and full rate over night guests nicest rooms even have hair dryers...bld 2 has weeklys and where I'm staying....bld 3 I have walked thru alleys that felt safer with the drunks, roommate freeway panhandlers coming and going and the bums coming to visit friends thru the back doorway that accesses the park. Recently trash was pilling up daily at the trash cans/ ash trays at entrance ways in the evenings.....the maids empty around 10, so the hotel idea was put notice on every door informing you must now take your trash out to dumpster they're removing trash cans......ha, the lady in her lawn mowing clothes faded black tshirt and black sweats working the front desk is the most pleasnt with her ponied tailed side kick who while having packages delivered by the mailman (something I do near daily) interupted to hastly ask are you staying here with few more comments about my frequent packages to have the mailman turn to me and say why do they act like that.......I explained that is white trash at it's finest.........no its not personal only insightful and revealing......avoid this dump like the trash thrown all around the dumpster not in nor picked up by staff, avoid like the two upolstered chairs that were removed from rooms that have been sitting at the end of the hallway in bld 2 next to the soda machine for 5 days now with huge blood stains staff seems to not care about finding storage or trash for...........honestly you always get what you pay for as a traveler who pays his own rooms I know value is hard to find and rates for rooms are a high expense but motel 6 is a more fitting description of this place.....ha the funny thing is I just went to take a picture for you all of the chairs since we can add photo here and at 342am the chairs are gone having been there just an hour ago........friday night sure someone pulled into room to have more seating shame that faded blod stain nobody who saw last 5 days knew is blood........I check out in hours not supporting a business owner and management like this any longerMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r135094159-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>135094159</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>After reading the reviews for the Howard Johnson Inn on Federal Street I was a little bit weary of staying here, I had stayed had Howard Johnson Inn's before but I was still not sure. The hotel is a bit run down but the room that I stayed in was huge and clean. Yes, it had it's issues like the bathroom could use a little bit of help but overall it was okay. Like I said the room was big and clean, the beds were pretty comfortable and it was nice having air conditioning. Overall you get what you pay for. If you just need a place to rest your head on your way in and out of town then definitely stay here. The look of it is not too nice but it's clean. As for the pool I did not go swimming but the water looked clean. When I first checked in my room was not ready yet and that was around 5pm but they said it was because they only have two maids working and they are going through ownership changes. I was fine with it because I would prefer a late dirty room then an on time nasty room. If I ever need another place to stay in Denver I will definatley go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>HoJo_Denver_GM, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>After reading the reviews for the Howard Johnson Inn on Federal Street I was a little bit weary of staying here, I had stayed had Howard Johnson Inn's before but I was still not sure. The hotel is a bit run down but the room that I stayed in was huge and clean. Yes, it had it's issues like the bathroom could use a little bit of help but overall it was okay. Like I said the room was big and clean, the beds were pretty comfortable and it was nice having air conditioning. Overall you get what you pay for. If you just need a place to rest your head on your way in and out of town then definitely stay here. The look of it is not too nice but it's clean. As for the pool I did not go swimming but the water looked clean. When I first checked in my room was not ready yet and that was around 5pm but they said it was because they only have two maids working and they are going through ownership changes. I was fine with it because I would prefer a late dirty room then an on time nasty room. If I ever need another place to stay in Denver I will definatley go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r133383543-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>133383543</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Never Stay Here</t>
+  </si>
+  <si>
+    <t>From the online photos, you'd think it was very nice, but not so. We booked this as our first night in Denver whilst on tour of Colorado, but when we arrived late evening, the building was dingey, the curtains to the windows looked as if they hadn't been cleaned for years, the upholstery in the room was dusty and dirty, the tv didn't work, the lights didn't work, the fridge didn't work, and no coffee facilities. Admittedly, they changed our room once we complained, but the second room not much better. At least, we didn't find any cockroaches! Outer security doors had no locks, so anyone could walk into the motel corridors. Reception was dull and untidy. I don't know how old the photos are online, but nothing looked like that.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>From the online photos, you'd think it was very nice, but not so. We booked this as our first night in Denver whilst on tour of Colorado, but when we arrived late evening, the building was dingey, the curtains to the windows looked as if they hadn't been cleaned for years, the upholstery in the room was dusty and dirty, the tv didn't work, the lights didn't work, the fridge didn't work, and no coffee facilities. Admittedly, they changed our room once we complained, but the second room not much better. At least, we didn't find any cockroaches! Outer security doors had no locks, so anyone could walk into the motel corridors. Reception was dull and untidy. I don't know how old the photos are online, but nothing looked like that.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r132627801-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1182,10 +1854,46 @@
     <t>I'm a business traveler and I purposely set my expectations low so that I can be pleasantly surprised by the very least of conveniences. For that reason, I was pleased to have a minifridge, full ironing board, iron, and wall mounted hair dryer in the room. As for the room itself, the carpet had patches missing, I killed 5 spiders in the room (one lurking on the other side of my bathmat when I picked it up off the tub) - sent me squealing like a schoolgirl before my first morning's shower. haha. But I wrote an email to the chain telling them this location is not befitting their name and they really need to tear it down and start over. Took me a few days to get used to the dreariness and dumpiness of the place. Don't stay here.MoreShow less</t>
   </si>
   <si>
-    <t>May 2012</t>
-  </si>
-  <si>
     <t>I'm a business traveler and I purposely set my expectations low so that I can be pleasantly surprised by the very least of conveniences. For that reason, I was pleased to have a minifridge, full ironing board, iron, and wall mounted hair dryer in the room. As for the room itself, the carpet had patches missing, I killed 5 spiders in the room (one lurking on the other side of my bathmat when I picked it up off the tub) - sent me squealing like a schoolgirl before my first morning's shower. haha. But I wrote an email to the chain telling them this location is not befitting their name and they really need to tear it down and start over. Took me a few days to get used to the dreariness and dumpiness of the place. Don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r126350419-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>126350419</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Don't be fooled!</t>
+  </si>
+  <si>
+    <t>On the website the pictures of the motel are beautiful and so is the discription.  I was so looking forward to the "heated pool" they mentioned.  All we saw when we opened the drapes in our room was dead shrubs and a covered pool.  The motel was having work done and one day we were without electricity because they were having a transformer changed.  There was no hot water to take a shower and no maid service for that day and they would not refund us for this inconvenience.  They say it was the City of Denver's fault and that several other places were without electricity as well.  It was funny that the restaurant next door still had electricty because that is where we went while tried to figure out what to do for the day since we could not get in to our rooms for 10 hours.  We killed four spiders in the room during our stay.  This is by far the worst experience at a Howard Johnson.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>On the website the pictures of the motel are beautiful and so is the discription.  I was so looking forward to the "heated pool" they mentioned.  All we saw when we opened the drapes in our room was dead shrubs and a covered pool.  The motel was having work done and one day we were without electricity because they were having a transformer changed.  There was no hot water to take a shower and no maid service for that day and they would not refund us for this inconvenience.  They say it was the City of Denver's fault and that several other places were without electricity as well.  It was funny that the restaurant next door still had electricty because that is where we went while tried to figure out what to do for the day since we could not get in to our rooms for 10 hours.  We killed four spiders in the room during our stay.  This is by far the worst experience at a Howard Johnson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r122951724-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>122951724</t>
+  </si>
+  <si>
+    <t>01/11/2012</t>
+  </si>
+  <si>
+    <t>Worst Hotel I ever saw</t>
+  </si>
+  <si>
+    <t>Yes Brenda steels your money and doesn'tgive it back, Pictures on web site are not what it really is, grounds have toilets stacked up around the hotel, holes in sheets gross fithy dirtsy wouldn't want my dog to stay there and charged my credit card then would not give me my money back after she charged my credit card Total sham!</t>
+  </si>
+  <si>
+    <t>December 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r122470113-Rodeway_Inn_Suites-Denver_Colorado.html</t>
@@ -1206,9 +1914,6 @@
 We got to the rooms and had 108 and 110.  They were both big with...I was a little worried after reading all the reviews after Hotwire confirmed this as my hotel.  I read the one about Brenda and the others in reference to bad smells and just dirtyness.  So when we arrived I was already to look at the room and then go book something else and spend the next few weeks arguing with Hotwire to get my money back.If you book this hotel with HJ direct you will pay mid $60's during the week and mid $80's on the weekend.  I checked in on New Years Eve and the person next to us was paying $89 for the night.  For this price I would RUN for the hills.  But if you go to Hotels.com its $60 and stay 3 nights and it drops to mid $40's.  Book with Hotwire and pick this area and its $38.00 plus fees so about $41.00 per night.  For this price its worth its one star.I booked two rooms and arrived to checkin.  A lady was at checkin and I said I had a hotwire reservation and she found it right away and started getting keys.  I looked at the name of the duty manager and it said Brenda.  I was waiting for some of the problems that I had read about and was surprised when Brenda was friendly and helpful.We got to the rooms and had 108 and 110.  They were both big with two queen beds,  110 had newer carpet but 108 had a fridge.  The bathrooms were clean and stocked with towels and shampoo.  The beds were clean and comfortable.  No bad smells or the infestation of spiders that I had read about.I was expecting noise and a restless sleep due to other complaints and was actually surprised that New Years Eve was not louder.  Last New Years in Vegas there were doors banging all night.  Breakfast was standard pastries, coffee, orange juice and waffles.  Came back to the room and had a hot shower with great water pressure.So these are the good points.  As an added bonus if you are coming for a Football game this hotel is on the bus route and only 2 miles away and as we drove by the stadium parking was $40 so right there you saved the cost of the room.  Some of the things I would agree with is the loudness of the shower.  If the room above or next door use the shower you can hear it.  The appearance of some of the area's could be improved.  For instance when you eat breakfast the room off to the side has dirty curtains and you can see all the stuff stored.  Above the door to the building again had dirty curtains with boxes stored up against the window.  There is a computer in the breakfast area but the printer does not work  The keycard door to the building was broken so anyone can get in.  But the keycards to the rooms were new and the doors were very secure.Brenda lives on the property so is here all the time I think between her and her husband no one else works the front.  They have small children and you can hear them when you checkin which is a bit un-preofessional.  But overall we are at the hotel for only a few hours a night so its really not a problem.  After all this is not a resort I did not book to stay at the hotel for my stay.If you book for $80 your crazy this is a one star hotel possibly one start plus with breakfast.  But do your research and check for best prices.  We had to stay because I booked hotwire non-refundable but rack rates can be canceled especially if the room is bad or un-safe. Added bonus # 2 There is a nice sized lake right behind the hotel with a walking track.  Very nice.  Area seemed very safe.  Mexican restaurant attached to hotel was busy all the time and gas station is also on property with store.MoreShow less</t>
   </si>
   <si>
-    <t>December 2011</t>
-  </si>
-  <si>
     <t>I was a little worried after reading all the reviews after Hotwire confirmed this as my hotel.  I read the one about Brenda and the others in reference to bad smells and just dirtyness.  So when we arrived I was already to look at the room and then go book something else and spend the next few weeks arguing with Hotwire to get my money back.
 If you book this hotel with HJ direct you will pay mid $60's during the week and mid $80's on the weekend.  I checked in on New Years Eve and the person next to us was paying $89 for the night.  For this price I would RUN for the hills.  But if you go to Hotels.com its $60 and stay 3 nights and it drops to mid $40's.  Book with Hotwire and pick this area and its $38.00 plus fees so about $41.00 per night.  For this price its worth its one star.
 I booked two rooms and arrived to checkin.  A lady was at checkin and I said I had a hotwire reservation and she found it right away and started getting keys.  I looked at the name of the duty manager and it said Brenda.  I was waiting for some of the problems that I had read about and was surprised when Brenda was friendly and helpful.
@@ -1257,6 +1962,42 @@
     <t>On-line photos and the ad didn't give a clue to the actual condition of the hotel.  There were men with grocery carts sleeping in the weeds surrounding the parking lot.  The clerk didn't have my pre-paid reservation information and sent me to another hotel.  The clerk complained that the booking site I used doesn't pay the hotel on time.  She refused to call to confirm my reservation.  While I was on hold to the 800#, a permanent hotel guest came into the lobby talking non-sense to anyone who made eye contact.  The hallway light fixtures were burned out.  There was a strong stench in the hallway and the room.  The chair cushions were strained.  The carpet was filthy.  There wasn't even a place where a bathroom exhaust fan was ever installed.  The standard room amenities like an ironing board, hair-dryer, etc., were completely missing.The first morning the maid never appeared and the room wasn't cleaned.  The second morning, the beds were made and a few clean towels appeared, but the carpet wasn't vacuumed.This hotel was chosen for location and proximity to destination.  The bargain price was not worth the unsafe, smelly room and dirty grounds.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r72327405-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>72327405</t>
+  </si>
+  <si>
+    <t>07/25/2010</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of location.  The first thing we noticed is the building and grounds are a mess--shabby is too good a word.  The smells in the hallways and in our room were nasty.  Our bathroom stunk and had cracking tile and just looked very old.  We had to unplug the TV to plug in the coffee maker.  An electric outlet was hanging out of the wall.  There were small random holes in the walls.  The smoke detector didn't work.  (I tried to close the open "door" covering the battery and the battery simply fell out.)  The windows in the breakfast room looked like they hadn't been washed in a long time.  The staff didn't do a good job of cleaning up the breakfast area--the tables and floor had crumbs on them long after breakfast was over.  The food was awful.  Worst, they didn't clean or make up our room two days in a row in spite of promising to do it the second day.  On another day (we stayed a week) I had to go find the cleaning people and get them to make up our room.  We had to empty our own trash and go get our own towels from the office.  They kept saying we were weekly guests and they don't normally clean weekly guests' rooms every day.  However, we were paying full rate-not weekly rate.  I kept pointing that out and they kept saying...We chose this hotel because of location.  The first thing we noticed is the building and grounds are a mess--shabby is too good a word.  The smells in the hallways and in our room were nasty.  Our bathroom stunk and had cracking tile and just looked very old.  We had to unplug the TV to plug in the coffee maker.  An electric outlet was hanging out of the wall.  There were small random holes in the walls.  The smoke detector didn't work.  (I tried to close the open "door" covering the battery and the battery simply fell out.)  The windows in the breakfast room looked like they hadn't been washed in a long time.  The staff didn't do a good job of cleaning up the breakfast area--the tables and floor had crumbs on them long after breakfast was over.  The food was awful.  Worst, they didn't clean or make up our room two days in a row in spite of promising to do it the second day.  On another day (we stayed a week) I had to go find the cleaning people and get them to make up our room.  We had to empty our own trash and go get our own towels from the office.  They kept saying we were weekly guests and they don't normally clean weekly guests' rooms every day.  However, we were paying full rate-not weekly rate.  I kept pointing that out and they kept saying we were weekly.  I asked what "weekly rate" was and the desk clerk quoted a figure half what we were paying!MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of location.  The first thing we noticed is the building and grounds are a mess--shabby is too good a word.  The smells in the hallways and in our room were nasty.  Our bathroom stunk and had cracking tile and just looked very old.  We had to unplug the TV to plug in the coffee maker.  An electric outlet was hanging out of the wall.  There were small random holes in the walls.  The smoke detector didn't work.  (I tried to close the open "door" covering the battery and the battery simply fell out.)  The windows in the breakfast room looked like they hadn't been washed in a long time.  The staff didn't do a good job of cleaning up the breakfast area--the tables and floor had crumbs on them long after breakfast was over.  The food was awful.  Worst, they didn't clean or make up our room two days in a row in spite of promising to do it the second day.  On another day (we stayed a week) I had to go find the cleaning people and get them to make up our room.  We had to empty our own trash and go get our own towels from the office.  They kept saying we were weekly guests and they don't normally clean weekly guests' rooms every day.  However, we were paying full rate-not weekly rate.  I kept pointing that out and they kept saying...We chose this hotel because of location.  The first thing we noticed is the building and grounds are a mess--shabby is too good a word.  The smells in the hallways and in our room were nasty.  Our bathroom stunk and had cracking tile and just looked very old.  We had to unplug the TV to plug in the coffee maker.  An electric outlet was hanging out of the wall.  There were small random holes in the walls.  The smoke detector didn't work.  (I tried to close the open "door" covering the battery and the battery simply fell out.)  The windows in the breakfast room looked like they hadn't been washed in a long time.  The staff didn't do a good job of cleaning up the breakfast area--the tables and floor had crumbs on them long after breakfast was over.  The food was awful.  Worst, they didn't clean or make up our room two days in a row in spite of promising to do it the second day.  On another day (we stayed a week) I had to go find the cleaning people and get them to make up our room.  We had to empty our own trash and go get our own towels from the office.  They kept saying we were weekly guests and they don't normally clean weekly guests' rooms every day.  However, we were paying full rate-not weekly rate.  I kept pointing that out and they kept saying we were weekly.  I asked what "weekly rate" was and the desk clerk quoted a figure half what we were paying!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r47239405-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>47239405</t>
+  </si>
+  <si>
+    <t>10/19/2009</t>
+  </si>
+  <si>
+    <t>Worst budget hotel for the money</t>
+  </si>
+  <si>
+    <t>Check out Best Inn and Suites 5 miles down the road. Ive stayed there and HJ. This hotel is the worst I have seen in a long time, especially for the money. Parking sucks, smells and in poor repair. Would'nt recommed this hotel to an enemy.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r31293005-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1314,6 +2055,45 @@
     <t>This was the worst experience we have ever had.My wife and myself checked in and had to request a room change, the first room had windows that would not lock. We left to attend the footbal game and when we returned someone had been in our room and went through all our stuff. My medication was missing. We called the front desk to have local police called. Two Denver PD officers were out front and told us they were the ones that had entered our room (without our permission I might add) when I asked for a police report for the stolen medication, the police said nothing was stolen and I did not need a police report. Needless to say, we left the hotel. Never Never Never stay at this location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r19216489-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>19216489</t>
+  </si>
+  <si>
+    <t>08/21/2008</t>
+  </si>
+  <si>
+    <t>Hands-down the ablsolute worst place i've ever stayed.</t>
+  </si>
+  <si>
+    <t>Wow! What a horrible staff of workers. The rooms smelled horrible, the place was totally runned down. There were fights in the hallway at night. They gave away our second night although we clearly booked two nights stay. When I went to complain about two lightbulbs that burned out, the ice machine and coffee machine that didn't work, they staight told me to "pack your bags and get outta here." i went across the street to the Motel 6 and got a room for half the price and even smelled better. Who woulda thought.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r16615710-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>16615710</t>
+  </si>
+  <si>
+    <t>06/02/2008</t>
+  </si>
+  <si>
+    <t>.............Dont do it..............</t>
+  </si>
+  <si>
+    <t>This is one of the worst motels I have seen in awhile.  From the outside at night it looks okay but once inside you don't want to touch nothing.  We got there late and only needed a place to sleep for a couple of hours.It smells really bad, the hallways are dirty, the rooms are run down and very dirty not to mention there is holes in the walls.  When we woke in the morning I realized why its so cheap.  Its not a good neighborhood and there was some pretty scary characters lurking around the lobby, hallways and parking lot.I will NEVER stay here again.  I am very disappointed that Howard Johnsons would allow one of their motels to end up like this one.  If it were me I would be selling this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>This is one of the worst motels I have seen in awhile.  From the outside at night it looks okay but once inside you don't want to touch nothing.  We got there late and only needed a place to sleep for a couple of hours.It smells really bad, the hallways are dirty, the rooms are run down and very dirty not to mention there is holes in the walls.  When we woke in the morning I realized why its so cheap.  Its not a good neighborhood and there was some pretty scary characters lurking around the lobby, hallways and parking lot.I will NEVER stay here again.  I am very disappointed that Howard Johnsons would allow one of their motels to end up like this one.  If it were me I would be selling this one.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r13778543-Rodeway_Inn_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -1369,6 +2149,39 @@
   </si>
   <si>
     <t>I booked this hotel with hotels.com.  I tried 3 different rooms!!! I was traveling with my 4 small children...Did not stay here.  First of all, advertised check-in time was 3pm. I arrived at 3:30, and they had no rooms ready for me. The first room they did offer,  was extremely dirty, holes in the curtains, a large patch of the ceiling  over the beds looked like it was detached and ready to fall in at any moment, and where the smoke detector was supposed to be, there were just wires hanging out of the wall. So, I asked for a better room. The second room, the electronic lock  was jammed and we could not get the door to unlock. The front desk person looked on her computer and could not figure out what the problem was (thank goodness we were outside the room, and not inside). So, we tried a third room (supposedly one of the nicer rooms). It was a little better, but was still dirty, holes in the curtains, and the smoke detector didn't work. Even if it was dead batteries, there's no excuse. People's lives depend on that LITTLE thing. So, I requested yet a different room. . they said they did not have one available. So, needless to say, I  requested a refund on the room from hotels.com,  and found one on my own.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r2522413-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>2522413</t>
+  </si>
+  <si>
+    <t>09/09/2004</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN</t>
+  </si>
+  <si>
+    <t>NO continental breakfast as advertized.  Just coffepot.  NO hairdryer in room as advertized. Rooms filthy with hair and dirt in corners,  burn holes in ice bucket, smoke smell in nonsmoking room.  Large holes in blankets, lumpy pillows.   Toilet seat with butt-biting crack.  Unusual flushing system:  had to hold lever down for entire flush.  ONE puny bar of soap, 3 large towels, ONE hand towel, 2 washclothes for 3 adults.  Bath water just tepid.  Room coffepot plugged into bathroom socket around corner.  Halls dimly lit.  "Key only" entrance door to building propped open.  Stereo music off and on thru night.  VAN/Truck parked across 4-6 prime parking spaces.  Would have left but was awaiting another person.  Tho privately owned, I cant believe Howard Johnson would allow their name to be used by this motel.   I will never stay at a Howard Johnsons again.MoreShow less</t>
+  </si>
+  <si>
+    <t>NO continental breakfast as advertized.  Just coffepot.  NO hairdryer in room as advertized. Rooms filthy with hair and dirt in corners,  burn holes in ice bucket, smoke smell in nonsmoking room.  Large holes in blankets, lumpy pillows.   Toilet seat with butt-biting crack.  Unusual flushing system:  had to hold lever down for entire flush.  ONE puny bar of soap, 3 large towels, ONE hand towel, 2 washclothes for 3 adults.  Bath water just tepid.  Room coffepot plugged into bathroom socket around corner.  Halls dimly lit.  "Key only" entrance door to building propped open.  Stereo music off and on thru night.  VAN/Truck parked across 4-6 prime parking spaces.  Would have left but was awaiting another person.  Tho privately owned, I cant believe Howard Johnson would allow their name to be used by this motel.   I will never stay at a Howard Johnsons again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d83044-r2217325-Rodeway_Inn_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>2217325</t>
+  </si>
+  <si>
+    <t>06/22/2004</t>
+  </si>
+  <si>
+    <t>Rundown</t>
+  </si>
+  <si>
+    <t>Terrible experience.  Hotel in disrepair.  Dirty.  Shabby.  Non-smoking room smelled heavily of smoke.  Saw mice in the hallway.  After checkin, I was told that multi-night stays receive maid service just once every 3 days.  Big sign in lobby says "No Refunds".  Nevertheless, I left after just one night of a planned six-night stay.</t>
   </si>
 </sst>
 </file>
@@ -1911,25 +2724,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1945,48 +2752,54 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -2002,34 +2815,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2043,7 +2856,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -2059,48 +2872,54 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -2116,34 +2935,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2157,7 +2976,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -2173,52 +2992,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2234,52 +3049,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" t="s">
-        <v>97</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -2295,7 +3112,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2304,26 +3121,22 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2333,14 +3146,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
         <v>96</v>
-      </c>
-      <c r="X9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2356,7 +3165,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2365,25 +3174,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2397,7 +3206,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2413,7 +3222,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2422,45 +3231,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2476,7 +3279,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2485,37 +3288,35 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2523,7 +3324,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -2539,7 +3340,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2548,22 +3349,22 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
@@ -2580,7 +3381,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -2596,7 +3397,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2605,25 +3406,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2634,10 +3435,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X14" t="s">
+        <v>130</v>
+      </c>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2653,34 +3458,34 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
         <v>138</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>143</v>
-      </c>
-      <c r="O15" t="s">
-        <v>68</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2691,10 +3496,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -2710,52 +3519,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
         <v>144</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>145</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>146</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>147</v>
       </c>
-      <c r="L16" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>143</v>
-      </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>139</v>
+      </c>
+      <c r="X16" t="s">
+        <v>140</v>
+      </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
@@ -2771,58 +3580,48 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>150</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>151</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>152</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>153</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>154</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>155</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
@@ -2838,47 +3637,37 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>156</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>157</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>158</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>159</v>
       </c>
-      <c r="L18" t="s">
-        <v>160</v>
-      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="s">
-        <v>155</v>
-      </c>
-      <c r="O18" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -2913,41 +3702,43 @@
         <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
       </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2962,7 +3753,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2971,41 +3762,37 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3013,7 +3800,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -3029,7 +3816,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3038,37 +3825,37 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" t="n">
         <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>168</v>
-      </c>
-      <c r="O21" t="s">
-        <v>125</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
       </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3076,7 +3863,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -3092,7 +3879,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3101,49 +3888,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -3159,7 +3936,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3168,34 +3945,34 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
-      </c>
-      <c r="K23" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
       <c r="L23" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
       <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>1</v>
@@ -3206,7 +3983,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -3222,7 +3999,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3231,44 +4008,42 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
-      </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3283,7 +4058,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3292,45 +4067,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>193</v>
       </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>184</v>
-      </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26">
@@ -3346,7 +4115,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3355,45 +4124,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27">
@@ -3409,7 +4172,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3418,44 +4181,44 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>203</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3470,7 +4233,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3479,38 +4242,34 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" t="n">
         <v>2</v>
       </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>1</v>
@@ -3521,7 +4280,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29">
@@ -3537,7 +4296,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3546,33 +4305,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3584,7 +4347,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
@@ -3600,7 +4363,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3609,37 +4372,41 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3647,7 +4414,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
@@ -3663,7 +4430,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3672,51 +4439,45 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
-      </c>
-      <c r="K31" t="s"/>
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
       <c r="L31" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>226</v>
-      </c>
-      <c r="X31" t="s">
-        <v>227</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32">
@@ -3732,32 +4493,30 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>237</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>228</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>229</v>
-      </c>
-      <c r="J32" t="s">
-        <v>230</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s">
-        <v>183</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>225</v>
-      </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3766,27 +4525,21 @@
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>231</v>
-      </c>
-      <c r="X32" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>185</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3801,7 +4554,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3810,21 +4563,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>234</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="K33" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s">
+        <v>246</v>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3840,14 +4597,16 @@
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
+      <c r="Y33" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3862,7 +4621,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3871,39 +4630,37 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>234</v>
-      </c>
-      <c r="K34" t="s"/>
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>252</v>
+      </c>
       <c r="L34" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3911,7 +4668,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
@@ -3927,7 +4684,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3936,44 +4693,50 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
+        <v>257</v>
+      </c>
+      <c r="K35" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s">
+        <v>259</v>
+      </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
+      <c r="Y35" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3988,7 +4751,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3997,34 +4760,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>247</v>
+      </c>
+      <c r="O36" t="s">
+        <v>181</v>
+      </c>
       <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>2</v>
@@ -4035,7 +4798,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37">
@@ -4051,7 +4814,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4060,44 +4823,50 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="J37" t="s">
-        <v>250</v>
-      </c>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4112,7 +4881,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4121,10 +4890,10 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="J38" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4132,26 +4901,26 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
         <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4173,7 +4942,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4182,33 +4951,33 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="J39" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -4234,7 +5003,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4243,30 +5012,30 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="J40" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
       </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -4280,7 +5049,9 @@
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4295,7 +5066,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4304,37 +5075,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="J41" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
         <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4356,7 +5127,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4365,44 +5136,46 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="J42" t="s">
-        <v>269</v>
-      </c>
-      <c r="K42" t="s"/>
-      <c r="L42" t="s"/>
+        <v>288</v>
+      </c>
+      <c r="K42" t="s">
+        <v>289</v>
+      </c>
+      <c r="L42" t="s">
+        <v>290</v>
+      </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
+      <c r="Y42" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4417,7 +5190,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4426,37 +5199,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="J43" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
         <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4478,7 +5251,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4487,21 +5260,23 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="J44" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+      <c r="L44" t="s">
+        <v>280</v>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4510,21 +5285,23 @@
         <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
+      <c r="Y44" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4539,7 +5316,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4548,44 +5325,46 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="J45" t="s">
-        <v>278</v>
-      </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+        <v>299</v>
+      </c>
+      <c r="K45" t="s">
+        <v>300</v>
+      </c>
+      <c r="L45" t="s">
+        <v>301</v>
+      </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
+      <c r="Y45" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4600,7 +5379,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4609,50 +5388,44 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="J46" t="s">
+        <v>305</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
         <v>281</v>
-      </c>
-      <c r="K46" t="s">
-        <v>282</v>
-      </c>
-      <c r="L46" t="s">
-        <v>283</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>275</v>
       </c>
       <c r="O46" t="s">
         <v>53</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
         <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
-      <c r="Y46" t="s">
-        <v>284</v>
-      </c>
+      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4667,7 +5440,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4676,25 +5449,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="J47" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="K47" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4703,14 +5476,14 @@
         <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4718,7 +5491,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48">
@@ -4734,7 +5507,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4743,38 +5516,28 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="J48" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
@@ -4795,7 +5558,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4804,44 +5567,40 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="J49" t="s">
-        <v>295</v>
-      </c>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
+        <v>317</v>
+      </c>
+      <c r="K49" t="s">
+        <v>318</v>
+      </c>
+      <c r="L49" t="s">
+        <v>319</v>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O49" t="s">
-        <v>95</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
+      <c r="Y49" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4856,7 +5615,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4865,41 +5624,37 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="J50" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4907,7 +5662,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51">
@@ -4923,7 +5678,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4932,22 +5687,22 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="J51" t="s">
-        <v>304</v>
-      </c>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
+        <v>329</v>
+      </c>
+      <c r="K51" t="s">
+        <v>330</v>
+      </c>
+      <c r="L51" t="s">
+        <v>331</v>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
-      <c r="N51" t="s">
-        <v>305</v>
-      </c>
-      <c r="O51" t="s">
-        <v>68</v>
-      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
         <v>1</v>
       </c>
@@ -4962,14 +5717,16 @@
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
+      <c r="Y51" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4984,7 +5741,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4993,44 +5750,52 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="J52" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
+      <c r="L52" t="s">
+        <v>280</v>
+      </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="O52" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
+      <c r="W52" t="s">
+        <v>337</v>
+      </c>
+      <c r="X52" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5045,7 +5810,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5054,44 +5819,52 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="J53" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
+      <c r="L53" t="s">
+        <v>280</v>
+      </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="O53" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
+      <c r="W53" t="s">
+        <v>337</v>
+      </c>
+      <c r="X53" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5106,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5115,44 +5888,50 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="J54" t="s">
-        <v>315</v>
-      </c>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
+        <v>344</v>
+      </c>
+      <c r="K54" t="s">
+        <v>345</v>
+      </c>
+      <c r="L54" t="s">
+        <v>346</v>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
         <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
+      <c r="Y54" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5167,7 +5946,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5176,49 +5955,51 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="J55" t="s">
-        <v>318</v>
-      </c>
-      <c r="K55" t="s">
-        <v>319</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="O55" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>351</v>
+      </c>
+      <c r="X55" t="s">
+        <v>338</v>
+      </c>
       <c r="Y55" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56">
@@ -5234,7 +6015,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5243,52 +6024,44 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="J56" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="K56" t="s"/>
-      <c r="L56" t="s">
-        <v>183</v>
-      </c>
+      <c r="L56" t="s"/>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O56" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>325</v>
-      </c>
-      <c r="X56" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>185</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5303,7 +6076,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5312,51 +6085,47 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="J57" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O57" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>325</v>
-      </c>
-      <c r="X57" t="s">
-        <v>326</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58">
@@ -5372,7 +6141,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5381,35 +6150,37 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="J58" t="s">
-        <v>332</v>
-      </c>
-      <c r="K58" t="s"/>
+        <v>360</v>
+      </c>
+      <c r="K58" t="s">
+        <v>361</v>
+      </c>
       <c r="L58" t="s">
-        <v>183</v>
+        <v>362</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="O58" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -5418,14 +6189,10 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>325</v>
-      </c>
-      <c r="X58" t="s">
-        <v>326</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59">
@@ -5441,7 +6208,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5450,54 +6217,44 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="J59" t="s">
-        <v>335</v>
-      </c>
-      <c r="K59" t="s">
-        <v>336</v>
-      </c>
-      <c r="L59" t="s">
-        <v>337</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
       <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>367</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
         <v>4</v>
       </c>
-      <c r="N59" t="s">
-        <v>338</v>
-      </c>
-      <c r="O59" t="s">
-        <v>61</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>339</v>
-      </c>
-      <c r="X59" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>341</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5512,7 +6269,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5521,34 +6278,30 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="J60" t="s">
-        <v>344</v>
-      </c>
-      <c r="K60" t="s">
-        <v>345</v>
-      </c>
-      <c r="L60" t="s">
-        <v>346</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="O60" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -5560,15 +6313,9 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>339</v>
-      </c>
-      <c r="X60" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>347</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5583,7 +6330,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5592,35 +6339,33 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="J61" t="s">
-        <v>350</v>
-      </c>
-      <c r="K61" t="s"/>
+        <v>374</v>
+      </c>
+      <c r="K61" t="s">
+        <v>375</v>
+      </c>
       <c r="L61" t="s">
-        <v>183</v>
+        <v>376</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="s">
-        <v>338</v>
-      </c>
-      <c r="O61" t="s">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -5629,14 +6374,10 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
-        <v>339</v>
-      </c>
-      <c r="X61" t="s">
-        <v>340</v>
-      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>185</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62">
@@ -5652,7 +6393,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5661,54 +6402,44 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="J62" t="s">
-        <v>353</v>
-      </c>
-      <c r="K62" t="s">
-        <v>354</v>
-      </c>
-      <c r="L62" t="s">
-        <v>355</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="O62" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
         <v>1</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>357</v>
-      </c>
-      <c r="X62" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>359</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5723,7 +6454,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5732,54 +6463,44 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="J63" t="s">
-        <v>362</v>
-      </c>
-      <c r="K63" t="s">
-        <v>363</v>
-      </c>
-      <c r="L63" t="s">
-        <v>364</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="O63" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
         <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>357</v>
-      </c>
-      <c r="X63" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>365</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5794,7 +6515,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5803,49 +6524,39 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="J64" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="K64" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="L64" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
-      <c r="N64" t="s">
-        <v>371</v>
-      </c>
-      <c r="O64" t="s">
-        <v>125</v>
-      </c>
-      <c r="P64" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>3</v>
-      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>2</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65">
@@ -5861,7 +6572,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -5870,27 +6581,27 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="J65" t="s">
-        <v>375</v>
-      </c>
-      <c r="K65" t="s">
-        <v>376</v>
-      </c>
-      <c r="L65" t="s">
-        <v>377</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
+      <c r="N65" t="s">
+        <v>393</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>4</v>
@@ -5900,16 +6611,14 @@
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
-      <c r="Y65" t="s">
-        <v>377</v>
-      </c>
+      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5924,7 +6633,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -5933,22 +6642,22 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="J66" t="s">
-        <v>380</v>
-      </c>
-      <c r="K66" t="s">
-        <v>381</v>
-      </c>
-      <c r="L66" t="s">
-        <v>382</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
-      <c r="N66" t="s"/>
-      <c r="O66" t="s"/>
+      <c r="N66" t="s">
+        <v>393</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
       <c r="P66" t="n">
         <v>1</v>
       </c>
@@ -5963,16 +6672,14 @@
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
-      <c r="Y66" t="s">
-        <v>382</v>
-      </c>
+      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5987,7 +6694,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -5996,25 +6703,21 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="J67" t="s">
-        <v>385</v>
-      </c>
-      <c r="K67" t="s">
-        <v>386</v>
-      </c>
-      <c r="L67" t="s">
-        <v>387</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="O67" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6030,16 +6733,14 @@
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
-      <c r="Y67" t="s">
-        <v>389</v>
-      </c>
+      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6054,7 +6755,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6063,22 +6764,22 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="J68" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K68" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L68" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="O68" t="s">
         <v>53</v>
@@ -6087,17 +6788,17 @@
         <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6105,7 +6806,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69">
@@ -6121,7 +6822,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6130,31 +6831,33 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J69" t="s">
-        <v>399</v>
-      </c>
-      <c r="K69" t="s">
-        <v>400</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="K69" t="s"/>
       <c r="L69" t="s">
-        <v>401</v>
+        <v>280</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="O69" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
       </c>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
       <c r="S69" t="n">
         <v>1</v>
       </c>
@@ -6168,7 +6871,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>403</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70">
@@ -6184,7 +6887,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6193,34 +6896,30 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J70" t="s">
-        <v>406</v>
-      </c>
-      <c r="K70" t="s">
-        <v>407</v>
-      </c>
-      <c r="L70" t="s">
+        <v>411</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
         <v>408</v>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="s">
-        <v>409</v>
-      </c>
       <c r="O70" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -6234,9 +6933,7 @@
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
-      <c r="Y70" t="s">
-        <v>410</v>
-      </c>
+      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6251,7 +6948,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6260,25 +6957,21 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J71" t="s">
-        <v>413</v>
-      </c>
-      <c r="K71" t="s">
         <v>414</v>
       </c>
-      <c r="L71" t="s">
-        <v>415</v>
-      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="O71" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -6287,23 +6980,21 @@
         <v>1</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
-      <c r="Y71" t="s">
-        <v>415</v>
-      </c>
+      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6318,7 +7009,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6327,34 +7018,30 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J72" t="s">
-        <v>419</v>
-      </c>
-      <c r="K72" t="s">
-        <v>420</v>
-      </c>
-      <c r="L72" t="s">
-        <v>421</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q72" t="n">
         <v>3</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
         <v>3</v>
@@ -6368,9 +7055,7 @@
       </c>
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
-      <c r="Y72" t="s">
-        <v>421</v>
-      </c>
+      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6385,7 +7070,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6394,28 +7079,28 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J73" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K73" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L73" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="O73" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -6428,7 +7113,7 @@
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6436,7 +7121,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74">
@@ -6452,7 +7137,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -6461,41 +7146,41 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J74" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K74" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L74" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O74" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T74" t="s"/>
       <c r="U74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -6503,7 +7188,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75">
@@ -6519,7 +7204,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -6528,25 +7213,21 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J75" t="s">
-        <v>438</v>
-      </c>
-      <c r="K75" t="s">
-        <v>439</v>
-      </c>
-      <c r="L75" t="s">
-        <v>440</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -6555,23 +7236,21 @@
         <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
-      <c r="Y75" t="s">
-        <v>442</v>
-      </c>
+      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6586,7 +7265,7 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="G76" t="s">
         <v>46</v>
@@ -6595,35 +7274,3514 @@
         <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="J76" t="s">
-        <v>445</v>
-      </c>
-      <c r="K76" t="s">
-        <v>446</v>
-      </c>
-      <c r="L76" t="s">
-        <v>447</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
       <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="s"/>
-      <c r="O76" t="s"/>
-      <c r="P76" t="s"/>
-      <c r="Q76" t="s"/>
-      <c r="R76" t="s"/>
-      <c r="S76" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>428</v>
+      </c>
+      <c r="O76" t="s">
+        <v>181</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
       <c r="T76" t="s"/>
-      <c r="U76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
       <c r="V76" t="n">
         <v>0</v>
       </c>
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
-      <c r="Y76" t="s">
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>435</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>436</v>
+      </c>
+      <c r="J77" t="s">
+        <v>437</v>
+      </c>
+      <c r="K77" t="s">
+        <v>438</v>
+      </c>
+      <c r="L77" t="s">
+        <v>439</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>428</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>441</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>442</v>
+      </c>
+      <c r="J78" t="s">
+        <v>437</v>
+      </c>
+      <c r="K78" t="s">
+        <v>443</v>
+      </c>
+      <c r="L78" t="s">
+        <v>444</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>428</v>
+      </c>
+      <c r="O78" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>446</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>447</v>
+      </c>
+      <c r="J79" t="s">
         <v>448</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s">
+        <v>280</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>428</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>449</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>450</v>
+      </c>
+      <c r="J80" t="s">
+        <v>451</v>
+      </c>
+      <c r="K80" t="s">
+        <v>452</v>
+      </c>
+      <c r="L80" t="s">
+        <v>453</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>428</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>454</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>455</v>
+      </c>
+      <c r="J81" t="s">
+        <v>456</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>428</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>457</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>458</v>
+      </c>
+      <c r="J82" t="s">
+        <v>459</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>428</v>
+      </c>
+      <c r="O82" t="s">
+        <v>138</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>460</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>461</v>
+      </c>
+      <c r="J83" t="s">
+        <v>459</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s">
+        <v>280</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>428</v>
+      </c>
+      <c r="O83" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>462</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>463</v>
+      </c>
+      <c r="J84" t="s">
+        <v>464</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>280</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>465</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>466</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>467</v>
+      </c>
+      <c r="J85" t="s">
+        <v>468</v>
+      </c>
+      <c r="K85" t="s">
+        <v>469</v>
+      </c>
+      <c r="L85" t="s">
+        <v>470</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>465</v>
+      </c>
+      <c r="O85" t="s">
+        <v>84</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>471</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>472</v>
+      </c>
+      <c r="J86" t="s">
+        <v>473</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>474</v>
+      </c>
+      <c r="O86" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>475</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>476</v>
+      </c>
+      <c r="J87" t="s">
+        <v>477</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>474</v>
+      </c>
+      <c r="O87" t="s">
+        <v>84</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>478</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>479</v>
+      </c>
+      <c r="J88" t="s">
+        <v>480</v>
+      </c>
+      <c r="K88" t="s">
+        <v>481</v>
+      </c>
+      <c r="L88" t="s">
+        <v>482</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>474</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>484</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>485</v>
+      </c>
+      <c r="J89" t="s">
+        <v>486</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>474</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>487</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>488</v>
+      </c>
+      <c r="J90" t="s">
+        <v>489</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>490</v>
+      </c>
+      <c r="O90" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>491</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>492</v>
+      </c>
+      <c r="J91" t="s">
+        <v>493</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>490</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>494</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>495</v>
+      </c>
+      <c r="J92" t="s">
+        <v>496</v>
+      </c>
+      <c r="K92" t="s">
+        <v>497</v>
+      </c>
+      <c r="L92" t="s">
+        <v>498</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>499</v>
+      </c>
+      <c r="O92" t="s">
+        <v>84</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>500</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>501</v>
+      </c>
+      <c r="J93" t="s">
+        <v>502</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s">
+        <v>280</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>490</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>503</v>
+      </c>
+      <c r="X93" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>505</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>506</v>
+      </c>
+      <c r="J94" t="s">
+        <v>507</v>
+      </c>
+      <c r="K94" t="s">
+        <v>508</v>
+      </c>
+      <c r="L94" t="s">
+        <v>509</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>499</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>510</v>
+      </c>
+      <c r="X94" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>513</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>514</v>
+      </c>
+      <c r="J95" t="s">
+        <v>515</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s">
+        <v>280</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>499</v>
+      </c>
+      <c r="O95" t="s">
+        <v>84</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>510</v>
+      </c>
+      <c r="X95" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>516</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>517</v>
+      </c>
+      <c r="J96" t="s">
+        <v>518</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s">
+        <v>280</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>499</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>510</v>
+      </c>
+      <c r="X96" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>519</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>520</v>
+      </c>
+      <c r="J97" t="s">
+        <v>521</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s">
+        <v>280</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>499</v>
+      </c>
+      <c r="O97" t="s">
+        <v>138</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>510</v>
+      </c>
+      <c r="X97" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>522</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>523</v>
+      </c>
+      <c r="J98" t="s">
+        <v>524</v>
+      </c>
+      <c r="K98" t="s">
+        <v>525</v>
+      </c>
+      <c r="L98" t="s">
+        <v>526</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>527</v>
+      </c>
+      <c r="O98" t="s">
+        <v>84</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>510</v>
+      </c>
+      <c r="X98" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>529</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>530</v>
+      </c>
+      <c r="J99" t="s">
+        <v>531</v>
+      </c>
+      <c r="K99" t="s">
+        <v>532</v>
+      </c>
+      <c r="L99" t="s">
+        <v>533</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>534</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>536</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>537</v>
+      </c>
+      <c r="J100" t="s">
+        <v>538</v>
+      </c>
+      <c r="K100" t="s">
+        <v>539</v>
+      </c>
+      <c r="L100" t="s">
+        <v>540</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>541</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>542</v>
+      </c>
+      <c r="X100" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>545</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>546</v>
+      </c>
+      <c r="J101" t="s">
+        <v>547</v>
+      </c>
+      <c r="K101" t="s">
+        <v>548</v>
+      </c>
+      <c r="L101" t="s">
+        <v>549</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>541</v>
+      </c>
+      <c r="O101" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>542</v>
+      </c>
+      <c r="X101" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>551</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>552</v>
+      </c>
+      <c r="J102" t="s">
+        <v>553</v>
+      </c>
+      <c r="K102" t="s"/>
+      <c r="L102" t="s">
+        <v>280</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>541</v>
+      </c>
+      <c r="O102" t="s">
+        <v>181</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>542</v>
+      </c>
+      <c r="X102" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>554</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>555</v>
+      </c>
+      <c r="J103" t="s">
+        <v>556</v>
+      </c>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s">
+        <v>280</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>541</v>
+      </c>
+      <c r="O103" t="s">
+        <v>138</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>542</v>
+      </c>
+      <c r="X103" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>557</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>558</v>
+      </c>
+      <c r="J104" t="s">
+        <v>559</v>
+      </c>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s">
+        <v>280</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>541</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>560</v>
+      </c>
+      <c r="X104" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>562</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>563</v>
+      </c>
+      <c r="J105" t="s">
+        <v>559</v>
+      </c>
+      <c r="K105" t="s">
+        <v>564</v>
+      </c>
+      <c r="L105" t="s">
+        <v>565</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>566</v>
+      </c>
+      <c r="O105" t="s">
+        <v>84</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>560</v>
+      </c>
+      <c r="X105" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>568</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>569</v>
+      </c>
+      <c r="J106" t="s">
+        <v>570</v>
+      </c>
+      <c r="K106" t="s">
+        <v>571</v>
+      </c>
+      <c r="L106" t="s">
+        <v>572</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>566</v>
+      </c>
+      <c r="O106" t="s">
+        <v>138</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>560</v>
+      </c>
+      <c r="X106" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>574</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>575</v>
+      </c>
+      <c r="J107" t="s">
+        <v>576</v>
+      </c>
+      <c r="K107" t="s">
+        <v>577</v>
+      </c>
+      <c r="L107" t="s">
+        <v>578</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>579</v>
+      </c>
+      <c r="O107" t="s">
+        <v>181</v>
+      </c>
+      <c r="P107" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>581</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>582</v>
+      </c>
+      <c r="J108" t="s">
+        <v>583</v>
+      </c>
+      <c r="K108" t="s">
+        <v>584</v>
+      </c>
+      <c r="L108" t="s">
+        <v>585</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>586</v>
+      </c>
+      <c r="O108" t="s">
+        <v>138</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>587</v>
+      </c>
+      <c r="X108" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>590</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>591</v>
+      </c>
+      <c r="J109" t="s">
+        <v>592</v>
+      </c>
+      <c r="K109" t="s">
+        <v>593</v>
+      </c>
+      <c r="L109" t="s">
+        <v>594</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>595</v>
+      </c>
+      <c r="O109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>597</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>598</v>
+      </c>
+      <c r="J110" t="s">
+        <v>599</v>
+      </c>
+      <c r="K110" t="s">
+        <v>600</v>
+      </c>
+      <c r="L110" t="s">
+        <v>601</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>602</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>603</v>
+      </c>
+      <c r="J111" t="s">
+        <v>604</v>
+      </c>
+      <c r="K111" t="s">
+        <v>605</v>
+      </c>
+      <c r="L111" t="s">
+        <v>606</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>607</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>608</v>
+      </c>
+      <c r="J112" t="s">
+        <v>609</v>
+      </c>
+      <c r="K112" t="s">
+        <v>610</v>
+      </c>
+      <c r="L112" t="s">
+        <v>611</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>595</v>
+      </c>
+      <c r="O112" t="s">
+        <v>84</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>613</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>614</v>
+      </c>
+      <c r="J113" t="s">
+        <v>615</v>
+      </c>
+      <c r="K113" t="s">
+        <v>616</v>
+      </c>
+      <c r="L113" t="s">
+        <v>617</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="s">
+        <v>618</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>620</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>621</v>
+      </c>
+      <c r="J114" t="s">
+        <v>622</v>
+      </c>
+      <c r="K114" t="s">
+        <v>623</v>
+      </c>
+      <c r="L114" t="s">
+        <v>624</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>625</v>
+      </c>
+      <c r="O114" t="s">
+        <v>53</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>626</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>627</v>
+      </c>
+      <c r="J115" t="s">
+        <v>628</v>
+      </c>
+      <c r="K115" t="s">
+        <v>629</v>
+      </c>
+      <c r="L115" t="s">
+        <v>630</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="s">
+        <v>625</v>
+      </c>
+      <c r="O115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>632</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>633</v>
+      </c>
+      <c r="J116" t="s">
+        <v>634</v>
+      </c>
+      <c r="K116" t="s">
+        <v>635</v>
+      </c>
+      <c r="L116" t="s">
+        <v>636</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
+        <v>637</v>
+      </c>
+      <c r="O116" t="s">
+        <v>138</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>1</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>639</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>640</v>
+      </c>
+      <c r="J117" t="s">
+        <v>641</v>
+      </c>
+      <c r="K117" t="s">
+        <v>642</v>
+      </c>
+      <c r="L117" t="s">
+        <v>643</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
+        <v>644</v>
+      </c>
+      <c r="O117" t="s">
+        <v>84</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>646</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>647</v>
+      </c>
+      <c r="J118" t="s">
+        <v>648</v>
+      </c>
+      <c r="K118" t="s">
+        <v>649</v>
+      </c>
+      <c r="L118" t="s">
+        <v>650</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
+        <v>644</v>
+      </c>
+      <c r="O118" t="s">
+        <v>60</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>1</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>652</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>653</v>
+      </c>
+      <c r="J119" t="s">
+        <v>654</v>
+      </c>
+      <c r="K119" t="s">
+        <v>655</v>
+      </c>
+      <c r="L119" t="s">
+        <v>656</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s">
+        <v>657</v>
+      </c>
+      <c r="O119" t="s">
+        <v>84</v>
+      </c>
+      <c r="P119" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3</v>
+      </c>
+      <c r="S119" t="n">
+        <v>1</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>3</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>658</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>659</v>
+      </c>
+      <c r="J120" t="s">
+        <v>660</v>
+      </c>
+      <c r="K120" t="s">
+        <v>661</v>
+      </c>
+      <c r="L120" t="s">
+        <v>662</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="s">
+        <v>663</v>
+      </c>
+      <c r="O120" t="s">
+        <v>181</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R120" t="n">
+        <v>3</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>2</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>664</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>665</v>
+      </c>
+      <c r="J121" t="s">
+        <v>666</v>
+      </c>
+      <c r="K121" t="s">
+        <v>667</v>
+      </c>
+      <c r="L121" t="s">
+        <v>668</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="s">
+        <v>669</v>
+      </c>
+      <c r="O121" t="s">
+        <v>53</v>
+      </c>
+      <c r="P121" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>3</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>2</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>670</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>671</v>
+      </c>
+      <c r="J122" t="s">
+        <v>672</v>
+      </c>
+      <c r="K122" t="s">
+        <v>673</v>
+      </c>
+      <c r="L122" t="s">
+        <v>674</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="s">
+        <v>675</v>
+      </c>
+      <c r="O122" t="s">
+        <v>60</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>1</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>677</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>678</v>
+      </c>
+      <c r="J123" t="s">
+        <v>679</v>
+      </c>
+      <c r="K123" t="s">
+        <v>680</v>
+      </c>
+      <c r="L123" t="s">
+        <v>681</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
+        <v>682</v>
+      </c>
+      <c r="O123" t="s">
+        <v>53</v>
+      </c>
+      <c r="P123" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>2</v>
+      </c>
+      <c r="R123" t="n">
+        <v>5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>1</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>683</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>684</v>
+      </c>
+      <c r="J124" t="s">
+        <v>685</v>
+      </c>
+      <c r="K124" t="s">
+        <v>686</v>
+      </c>
+      <c r="L124" t="s">
+        <v>687</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
+        <v>688</v>
+      </c>
+      <c r="O124" t="s">
+        <v>53</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1</v>
+      </c>
+      <c r="T124" t="s"/>
+      <c r="U124" t="n">
+        <v>2</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B125" t="s"/>
+      <c r="C125" t="s"/>
+      <c r="D125" t="n">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" t="s">
+        <v>690</v>
+      </c>
+      <c r="G125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" t="s">
+        <v>691</v>
+      </c>
+      <c r="J125" t="s">
+        <v>692</v>
+      </c>
+      <c r="K125" t="s">
+        <v>693</v>
+      </c>
+      <c r="L125" t="s">
+        <v>694</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
+        <v>695</v>
+      </c>
+      <c r="O125" t="s">
+        <v>138</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R125" t="n">
+        <v>5</v>
+      </c>
+      <c r="S125" t="n">
+        <v>1</v>
+      </c>
+      <c r="T125" t="s"/>
+      <c r="U125" t="n">
+        <v>2</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="s"/>
+      <c r="X125" t="s"/>
+      <c r="Y125" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B126" t="s"/>
+      <c r="C126" t="s"/>
+      <c r="D126" t="n">
+        <v>125</v>
+      </c>
+      <c r="E126" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" t="s">
+        <v>696</v>
+      </c>
+      <c r="G126" t="s">
+        <v>46</v>
+      </c>
+      <c r="H126" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" t="s">
+        <v>697</v>
+      </c>
+      <c r="J126" t="s">
+        <v>698</v>
+      </c>
+      <c r="K126" t="s">
+        <v>699</v>
+      </c>
+      <c r="L126" t="s">
+        <v>700</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
+        <v>701</v>
+      </c>
+      <c r="O126" t="s">
+        <v>53</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2</v>
+      </c>
+      <c r="T126" t="s"/>
+      <c r="U126" t="n">
+        <v>2</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s"/>
+      <c r="X126" t="s"/>
+      <c r="Y126" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B127" t="s"/>
+      <c r="C127" t="s"/>
+      <c r="D127" t="n">
+        <v>126</v>
+      </c>
+      <c r="E127" t="s">
+        <v>44</v>
+      </c>
+      <c r="F127" t="s">
+        <v>703</v>
+      </c>
+      <c r="G127" t="s">
+        <v>46</v>
+      </c>
+      <c r="H127" t="s">
+        <v>47</v>
+      </c>
+      <c r="I127" t="s">
+        <v>704</v>
+      </c>
+      <c r="J127" t="s">
+        <v>705</v>
+      </c>
+      <c r="K127" t="s">
+        <v>706</v>
+      </c>
+      <c r="L127" t="s">
+        <v>707</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="s"/>
+      <c r="O127" t="s"/>
+      <c r="P127" t="s"/>
+      <c r="Q127" t="s"/>
+      <c r="R127" t="s"/>
+      <c r="S127" t="s"/>
+      <c r="T127" t="s"/>
+      <c r="U127" t="s"/>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="s"/>
+      <c r="X127" t="s"/>
+      <c r="Y127" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B128" t="s"/>
+      <c r="C128" t="s"/>
+      <c r="D128" t="n">
+        <v>127</v>
+      </c>
+      <c r="E128" t="s">
+        <v>44</v>
+      </c>
+      <c r="F128" t="s">
+        <v>709</v>
+      </c>
+      <c r="G128" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128" t="s">
+        <v>710</v>
+      </c>
+      <c r="J128" t="s">
+        <v>711</v>
+      </c>
+      <c r="K128" t="s">
+        <v>712</v>
+      </c>
+      <c r="L128" t="s">
+        <v>713</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s"/>
+      <c r="O128" t="s"/>
+      <c r="P128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R128" t="s"/>
+      <c r="S128" t="n">
+        <v>1</v>
+      </c>
+      <c r="T128" t="s"/>
+      <c r="U128" t="n">
+        <v>2</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" t="s"/>
+      <c r="X128" t="s"/>
+      <c r="Y128" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2902</v>
+      </c>
+      <c r="B129" t="s"/>
+      <c r="C129" t="s"/>
+      <c r="D129" t="n">
+        <v>128</v>
+      </c>
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" t="s">
+        <v>715</v>
+      </c>
+      <c r="G129" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" t="s">
+        <v>47</v>
+      </c>
+      <c r="I129" t="s">
+        <v>716</v>
+      </c>
+      <c r="J129" t="s">
+        <v>717</v>
+      </c>
+      <c r="K129" t="s">
+        <v>718</v>
+      </c>
+      <c r="L129" t="s">
+        <v>719</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s"/>
+      <c r="O129" t="s"/>
+      <c r="P129" t="s"/>
+      <c r="Q129" t="s"/>
+      <c r="R129" t="s"/>
+      <c r="S129" t="s"/>
+      <c r="T129" t="s"/>
+      <c r="U129" t="s"/>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
+      <c r="W129" t="s"/>
+      <c r="X129" t="s"/>
+      <c r="Y129" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
